--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>GOLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,225 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2721000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2883000</v>
+      </c>
+      <c r="F8" s="3">
         <v>2678000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2063000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2093000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1904000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1837000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1712000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1790000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2228000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1993000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2160000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>316700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>356400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1987000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1889000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1545000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1490000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1577000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1315000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1176000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1152000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1411000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1270000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1277000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>167400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>196700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>896000</v>
+      </c>
+      <c r="F10" s="3">
         <v>789000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>518000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>603000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>327000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>522000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>536000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>638000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>817000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>723000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>883000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>149300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>159700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,52 +900,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>40000</v>
+      </c>
+      <c r="F12" s="3">
         <v>86000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>98000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>74000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>87000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>89000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>97000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>73000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>98000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>100000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>81000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>10900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>8000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,52 +996,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-835000</v>
+        <v>-221000</v>
       </c>
       <c r="E14" s="3">
+        <v>-555000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-2721000</v>
+      </c>
+      <c r="G14" s="3">
         <v>43000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>44000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>451000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>495000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>67000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>28000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1029000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>117000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1050,8 +1096,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1065,96 +1117,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1583000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>217000</v>
+      </c>
+      <c r="F17" s="3">
         <v>-670000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1681000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1666000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2176000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1988000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1536000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1264000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2514000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1585000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>602000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>192200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>223900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1138000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2666000</v>
+      </c>
+      <c r="F18" s="3">
         <v>3348000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>382000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>427000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-272000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-151000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>176000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>526000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-286000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>408000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1558000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>124500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>132500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1171,228 +1237,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>325000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
-        <v>8000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>20000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>7000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>6000</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3913000</v>
+        <v>1656000</v>
       </c>
       <c r="E21" s="3">
-        <v>856000</v>
+        <v>3563000</v>
       </c>
       <c r="F21" s="3">
-        <v>870000</v>
+        <v>3894000</v>
       </c>
       <c r="G21" s="3">
-        <v>189000</v>
+        <v>836000</v>
       </c>
       <c r="H21" s="3">
-        <v>215000</v>
+        <v>850000</v>
       </c>
       <c r="I21" s="3">
+        <v>167000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>192000</v>
+      </c>
+      <c r="K21" s="3">
         <v>505000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>855000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>153000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>805000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1973000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>158600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>263000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>128000</v>
+        <v>83000</v>
       </c>
       <c r="E22" s="3">
-        <v>126000</v>
+        <v>431000</v>
       </c>
       <c r="F22" s="3">
-        <v>128000</v>
+        <v>109000</v>
       </c>
       <c r="G22" s="3">
+        <v>106000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>108000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>115000</v>
+      </c>
+      <c r="J22" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K22" s="3">
         <v>137000</v>
       </c>
-      <c r="H22" s="3">
-        <v>133000</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>137000</v>
       </c>
-      <c r="J22" s="3">
-        <v>137000</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>135000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>144000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>153000</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1049000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2560000</v>
+      </c>
+      <c r="F23" s="3">
         <v>3226000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>264000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>307000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-389000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-281000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>40000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>393000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-416000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>271000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1411000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>119600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>127800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>784000</v>
+      </c>
+      <c r="F24" s="3">
         <v>791000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>41000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>167000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>776000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>105000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>116000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>201000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>394000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>314000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>274000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>34700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>33500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1435,96 +1533,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>663000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="F26" s="3">
         <v>2435000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>223000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>140000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-386000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-76000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>192000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-810000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-43000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1137000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>84900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>94300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1387000</v>
+      </c>
+      <c r="F27" s="3">
         <v>2277000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>194000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>111000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-412000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-94000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>158000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-657000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-11000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1084000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>69800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>78500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1567,8 +1683,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1593,26 +1715,32 @@
       <c r="J29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="K29" s="3">
-        <v>343000</v>
+      <c r="K29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>343000</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,8 +1783,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1699,96 +1833,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-325000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1387000</v>
+      </c>
+      <c r="F33" s="3">
         <v>2277000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>194000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>111000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-412000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-94000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>158000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-314000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-11000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1084000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>69800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>78500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,101 +1983,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1387000</v>
+      </c>
+      <c r="F35" s="3">
         <v>2277000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>194000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>111000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-412000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-94000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>158000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-314000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-11000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1084000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>69800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>78500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1942,8 +2112,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1960,52 +2132,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3327000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3314000</v>
+      </c>
+      <c r="F41" s="3">
         <v>2405000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2153000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2153000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1571000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1697000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2085000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2384000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2234000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2025000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2926000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>516300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2048,316 +2228,364 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>363000</v>
+      </c>
+      <c r="F43" s="3">
         <v>311000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>427000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>383000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>248000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>189000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>194000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>173000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>239000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>224000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>190000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>236800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>231400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2289000</v>
+      </c>
+      <c r="F44" s="3">
         <v>2265000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1930000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1966000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1852000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1898000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1940000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1887000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1890000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2038000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1901000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>124600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>119000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>594000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>921000</v>
+      </c>
+      <c r="F45" s="3">
         <v>529000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>333000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>372000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>307000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>319000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>356000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>352000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>321000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>455000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>486000</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6451000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6887000</v>
+      </c>
+      <c r="F46" s="3">
         <v>5510000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>4843000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>4874000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3978000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>4103000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>4575000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4796000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>4684000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>4742000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5503000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>961600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>866800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4556000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4527000</v>
+      </c>
+      <c r="F47" s="3">
         <v>4474000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>4459000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>4444000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>1234000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1233000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1214000</v>
       </c>
       <c r="J47" s="3">
         <v>1233000</v>
       </c>
       <c r="K47" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="L47" s="3">
+        <v>1233000</v>
+      </c>
+      <c r="M47" s="3">
         <v>1213000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1243000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1218000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1446800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1448600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>24809000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>24141000</v>
+      </c>
+      <c r="F48" s="3">
         <v>24758000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>16890000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>16891000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>12826000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>13226000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>13727000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>13755000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>13806000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>13961000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>13943000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1564000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1560900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4999000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4995000</v>
+      </c>
+      <c r="F49" s="3">
         <v>5025000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3064000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3037000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1403000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1559000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1560000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>1585000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1585000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1556000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1586000</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2400,8 +2628,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2444,52 +2678,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4124000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3842000</v>
+      </c>
+      <c r="F52" s="3">
         <v>4100000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>3346000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>3383000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>3190000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>3997000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>4046000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4027000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>4020000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>3570000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3557000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>163600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>164700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2532,52 +2778,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>44939000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44392000</v>
+      </c>
+      <c r="F54" s="3">
         <v>43867000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>32602000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>32629000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>22631000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>24118000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>25122000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>25396000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>25308000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>25072000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>25807000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4136000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>4041000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2594,8 +2852,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2612,272 +2872,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1140000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1337000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1064000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1213000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1101000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1125000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>944000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1046000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1059000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1118000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1044000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>120000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>127400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>375000</v>
+      </c>
+      <c r="F58" s="3">
         <v>66000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>303000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>308000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>43000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>49000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>680000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>57000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>59000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>63000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>116000</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>801000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>846000</v>
+      </c>
+      <c r="F59" s="3">
         <v>441000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>415000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>463000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>524000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>375000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>536000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>595000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>629000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>557000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>386000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>71100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>61000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2376000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1844000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1782000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1984000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1668000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1549000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2160000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1698000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1747000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1738000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1546000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>191100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>188400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5150000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5161000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5494000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5504000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5499000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5695000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5696000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5712000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6344000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>6364000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6384000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>2800</v>
       </c>
       <c r="P61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7464000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7028000</v>
+      </c>
+      <c r="F62" s="3">
         <v>8129000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>6849000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>6844000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>5883000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>6187000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>6144000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>6088000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6130000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5328000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5248000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>101700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>97800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2920,8 +3218,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2964,8 +3268,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3008,52 +3318,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23252000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22960000</v>
+      </c>
+      <c r="F66" s="3">
         <v>23718000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>16856000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17031000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15038000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>15211000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15766000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15917000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16022000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15458000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16165000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>559400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>542300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3070,8 +3392,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3114,8 +3438,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3158,8 +3488,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3202,8 +3538,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3246,52 +3588,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-9446000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-9722000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>2014900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1956700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3334,8 +3688,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3378,8 +3738,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3422,52 +3788,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>21687000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>21432000</v>
+      </c>
+      <c r="F76" s="3">
         <v>20149000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>15746000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>15598000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>7593000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>8907000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9356000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9479000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9286000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>9614000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>9642000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3576600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3498700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3510,101 +3888,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>400000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1387000</v>
+      </c>
+      <c r="F81" s="3">
         <v>2277000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>194000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>111000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-412000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-94000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>158000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-314000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-11000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1084000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>69800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>78500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3621,52 +4017,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>572000</v>
+      </c>
+      <c r="F83" s="3">
         <v>559000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>466000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>435000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>441000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>363000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>328000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>325000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>434000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>390000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>409000</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3709,8 +4113,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3753,8 +4163,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3797,8 +4213,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3841,8 +4263,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3885,52 +4313,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>889000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>875000</v>
+      </c>
+      <c r="F89" s="3">
         <v>1004000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>434000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>520000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>411000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>706000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>141000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>507000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>590000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>532000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>448000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>133100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>204700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3947,52 +4387,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-451000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-446000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-502000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-379000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-374000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-374000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-387000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-313000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-326000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-350000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-307000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-405000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-41300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-50300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4035,8 +4483,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4079,52 +4533,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-163000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>362000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-383000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-351000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>422000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-477000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-386000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-347000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-284000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-256000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-306000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>556000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-44700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-48000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4141,52 +4607,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-87000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-67000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-61000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-333000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-31000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-31000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-32000</v>
       </c>
       <c r="J96" s="3">
         <v>-31000</v>
       </c>
       <c r="K96" s="3">
-        <v>-31000</v>
+        <v>-32000</v>
       </c>
       <c r="L96" s="3">
         <v>-31000</v>
       </c>
       <c r="M96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-32000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4229,8 +4703,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4273,8 +4753,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4317,85 +4803,97 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-709000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-328000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-369000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-82000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-360000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-57000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-704000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-92000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-72000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-126000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-355000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-4400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4405,48 +4903,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>909000</v>
+      </c>
+      <c r="F102" s="3">
         <v>252000</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>582000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-126000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-388000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-299000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>150000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>209000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-901000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>649000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>84000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>155200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>GOLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,225 +665,238 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="15" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3055000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2721000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2883000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2678000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2063000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2093000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1904000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1837000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1712000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1790000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2228000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1993000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2160000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>316700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>356400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1776000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1987000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1889000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1545000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1490000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1577000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1315000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1176000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1152000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1411000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1270000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1277000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>167400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>196700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1155000</v>
+      </c>
+      <c r="E10" s="3">
         <v>945000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>896000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>789000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>518000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>603000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>327000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>522000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>536000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>638000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>817000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>723000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>883000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>149300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>159700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,58 +915,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>78000</v>
+      </c>
+      <c r="E12" s="3">
         <v>71000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>40000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>86000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>98000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>74000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>87000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>89000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>97000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>73000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>98000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>81000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1002,58 +1019,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-221000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-555000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2721000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>43000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>44000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>451000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>495000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>67000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1029000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>117000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1125,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1119,108 +1145,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2093000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1583000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>217000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>-670000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1681000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1666000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2176000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1988000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1536000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1264000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2514000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1585000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>602000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>192200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>223900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>962000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1138000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2666000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3348000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>382000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>427000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-272000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-151000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>176000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>526000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-286000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>408000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1558000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>124500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>132500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1239,258 +1272,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>325000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-12000</v>
       </c>
       <c r="H20" s="3">
         <v>-12000</v>
       </c>
       <c r="I20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1526000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1656000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3563000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3894000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>836000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>850000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>167000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>192000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>505000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>855000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>153000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>805000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1973000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>158600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>263000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E22" s="3">
         <v>83000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>431000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>109000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>106000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>108000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>115000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>110000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>137000</v>
       </c>
       <c r="L22" s="3">
         <v>137000</v>
       </c>
       <c r="M22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="N22" s="3">
         <v>135000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>144000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>153000</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>880000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1049000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2560000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3226000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>264000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>307000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-389000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-281000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>393000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-416000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>271000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1411000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>119600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>127800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E24" s="3">
         <v>386000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>784000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>791000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>41000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>167000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>776000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>105000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>116000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>201000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>394000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>314000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>274000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>34700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1539,108 +1588,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>622000</v>
+      </c>
+      <c r="E26" s="3">
         <v>663000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1776000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2435000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>223000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>140000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-386000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-76000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>192000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-810000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-43000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1137000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>84900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E27" s="3">
         <v>400000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1387000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2277000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>194000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>111000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-412000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-94000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>158000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-657000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1084000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>78500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1689,8 +1747,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1721,17 +1782,17 @@
       <c r="L29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="3">
         <v>343000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1739,8 +1800,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1789,8 +1853,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1839,108 +1906,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-325000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>12000</v>
       </c>
       <c r="H32" s="3">
         <v>12000</v>
       </c>
       <c r="I32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E33" s="3">
         <v>400000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1387000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2277000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>194000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>111000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-412000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-94000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>158000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-314000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1084000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>78500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1989,113 +2065,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E35" s="3">
         <v>400000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1387000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2277000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>194000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>111000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-412000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-94000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>158000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-314000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1084000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>78500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2114,8 +2199,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2134,58 +2220,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>3743000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3327000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3314000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>2153000</v>
       </c>
       <c r="H41" s="3">
         <v>2153000</v>
       </c>
       <c r="I41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="J41" s="3">
         <v>1571000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1697000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2085000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2384000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2234000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2025000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2926000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>516300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2234,358 +2324,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E43" s="3">
         <v>371000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>363000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>311000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>427000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>383000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>248000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>189000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>194000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>173000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>239000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>224000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>190000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>236800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>231400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2160000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2159000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2289000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2265000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1930000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1966000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1852000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1898000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1940000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1887000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1890000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2038000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1901000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>124600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>119000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>609000</v>
+      </c>
+      <c r="E45" s="3">
         <v>594000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>921000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>529000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>333000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>372000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>307000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>319000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>356000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>352000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>321000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>455000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>486000</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>6919000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6451000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6887000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5510000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4843000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4874000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3978000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4103000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4575000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4796000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4684000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4742000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5503000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>961600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>866800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4587000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4556000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4527000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4474000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4459000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4444000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>1234000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1233000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1214000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1233000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1213000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1243000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1218000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1446800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1448600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>24727000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24809000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24141000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24758000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>16890000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16891000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>12826000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>13226000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13727000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13755000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13806000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13961000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13943000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1564000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1560900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4983000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4999000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4995000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>5025000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3064000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3037000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1403000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1559000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1585000</v>
       </c>
       <c r="M49" s="3">
         <v>1585000</v>
       </c>
       <c r="N49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="O49" s="3">
         <v>1556000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1586000</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2634,8 +2748,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2684,58 +2801,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3964000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4124000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3842000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4100000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3346000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3383000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3190000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3997000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4046000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4027000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4020000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3570000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3557000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>163600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>164700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2784,58 +2907,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>45180000</v>
+      </c>
+      <c r="E54" s="3">
         <v>44939000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44392000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43867000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>32602000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32629000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>22631000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24118000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>25122000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25396000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25308000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25072000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25807000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4136000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4041000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2854,8 +2983,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2874,249 +3004,262 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1072000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1140000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1155000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1337000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1064000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1213000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1101000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1125000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>944000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1046000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1059000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1118000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1044000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>120000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>127400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E58" s="3">
         <v>29000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>375000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>66000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>303000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>308000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>43000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>49000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>680000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>57000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>59000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>63000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>116000</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>713000</v>
+      </c>
+      <c r="E59" s="3">
         <v>801000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>846000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>441000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>415000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>463000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>524000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>375000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>536000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>595000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>629000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>557000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>386000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>71100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>61000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1811000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1970000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2376000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1844000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1782000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1984000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1668000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1549000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2160000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1698000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1747000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1738000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1546000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>191100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>188400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5142000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5150000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5161000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5494000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5504000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5499000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5695000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5696000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5712000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6344000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6364000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6384000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>2800</v>
       </c>
       <c r="Q61" s="3">
         <v>2800</v>
@@ -3124,58 +3267,64 @@
       <c r="R61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7481000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7464000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7028000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>8129000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6849000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6844000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>5883000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6187000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6144000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6088000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6130000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5328000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5248000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>101700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>97800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3224,8 +3373,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3274,8 +3426,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3324,58 +3479,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23148000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23252000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22960000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23718000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16856000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>17031000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15038000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15211000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15766000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15917000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16022000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15458000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16165000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>559400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>542300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3394,8 +3555,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3444,8 +3606,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3494,8 +3659,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3544,8 +3712,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3594,58 +3765,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-9214000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2014900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1956700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3694,8 +3871,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3744,8 +3924,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3794,58 +3977,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>22032000</v>
+      </c>
+      <c r="E76" s="3">
         <v>21687000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21432000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20149000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>15746000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15598000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7593000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8907000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9356000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9479000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9286000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9614000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9642000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3576600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3498700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3894,113 +4083,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>357000</v>
+      </c>
+      <c r="E81" s="3">
         <v>400000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1387000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2277000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>194000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>111000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-412000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-94000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>158000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-314000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1084000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>78500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4019,58 +4217,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>566000</v>
+      </c>
+      <c r="E83" s="3">
         <v>524000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>572000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>559000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>466000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>435000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>441000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>363000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>328000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>325000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>434000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>390000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>409000</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4119,8 +4321,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4169,8 +4374,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4219,8 +4427,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4269,8 +4480,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4319,58 +4533,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="E89" s="3">
         <v>889000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>875000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1004000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>434000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>520000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>411000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>706000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>141000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>507000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>590000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>532000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>448000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>133100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>204700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4389,58 +4609,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-509000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-451000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-446000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-502000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-374000</v>
       </c>
       <c r="I91" s="3">
         <v>-374000</v>
       </c>
       <c r="J91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-387000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-313000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-326000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-350000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-307000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-405000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-41300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-50300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4489,8 +4713,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4539,58 +4766,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-163000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>362000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-383000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-351000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>422000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-477000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-386000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-347000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-284000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-256000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-306000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>556000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-44700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-48000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4609,37 +4842,38 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-124000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-122000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-87000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-67000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-61000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-31000</v>
       </c>
       <c r="J96" s="3">
         <v>-31000</v>
       </c>
       <c r="K96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-31000</v>
       </c>
       <c r="M96" s="3">
         <v>-31000</v>
@@ -4648,19 +4882,22 @@
         <v>-31000</v>
       </c>
       <c r="O96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-32000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4709,8 +4946,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -4759,8 +4999,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -4809,94 +5052,100 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-348000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-709000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-328000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-369000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-82000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-360000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-57000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-704000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-92000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-72000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-126000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-355000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1000</v>
       </c>
       <c r="L101" s="3">
         <v>-1000</v>
       </c>
       <c r="M101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N101" s="3">
         <v>1000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -4909,54 +5158,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>416000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>909000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>252000</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>582000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-126000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-388000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-299000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>150000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>209000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-901000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>649000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>84000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>155200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>GOLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,238 +665,251 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3540000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3055000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2721000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2883000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2678000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2063000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2093000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1904000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1837000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1712000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1790000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2228000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1993000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2160000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>316700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>356400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1927000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1900000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1776000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1987000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1889000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1545000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1490000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1577000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1315000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1176000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1152000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1411000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1270000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1277000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>167400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>196700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1613000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1155000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>945000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>896000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>789000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>518000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>603000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>327000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>522000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>536000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>638000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>817000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>723000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>883000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>149300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>159700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -916,61 +929,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E12" s="3">
         <v>78000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>71000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>40000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>86000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>98000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>74000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>87000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>89000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>97000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>73000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>98000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>100000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>81000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>10900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>8000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1022,61 +1039,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E14" s="3">
         <v>81000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-221000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-555000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2721000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>43000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>44000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>451000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>495000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>67000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1029000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>117000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1128,8 +1151,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1146,114 +1172,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1904000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2093000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1583000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>217000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>-670000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1681000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1666000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2176000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1988000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1536000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1264000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2514000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1585000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>602000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>192200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>223900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1636000</v>
+      </c>
+      <c r="E18" s="3">
         <v>962000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1138000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2666000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3348000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>382000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>427000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-272000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-151000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>176000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>526000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-286000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>408000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1558000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>124500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>132500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,273 +1306,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>325000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-12000</v>
       </c>
       <c r="I20" s="3">
         <v>-12000</v>
       </c>
       <c r="J20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2210000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1526000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1656000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>3563000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3894000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>836000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>850000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>167000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>505000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>855000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>153000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>805000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1973000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>158600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>263000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E22" s="3">
         <v>80000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>83000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>431000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>109000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>106000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>108000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>115000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>110000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>137000</v>
       </c>
       <c r="M22" s="3">
         <v>137000</v>
       </c>
       <c r="N22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="O22" s="3">
         <v>135000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>144000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>153000</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1555000</v>
+      </c>
+      <c r="E23" s="3">
         <v>880000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1049000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2560000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3226000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>264000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>307000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-389000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-281000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>393000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-416000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>271000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1411000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>119600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>127800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E24" s="3">
         <v>258000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>386000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>784000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>791000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>41000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>167000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>776000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>105000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>116000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>201000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>394000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>314000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>274000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1591,114 +1640,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1271000</v>
+      </c>
+      <c r="E26" s="3">
         <v>622000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>663000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1776000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2435000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>223000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>140000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-386000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-76000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>192000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-810000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-43000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1137000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>84900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>94300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E27" s="3">
         <v>357000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>400000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1387000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2277000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>194000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>111000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-412000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-94000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>158000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-657000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>69800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>78500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1750,8 +1808,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1785,17 +1846,17 @@
       <c r="M29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="O29" s="3">
         <v>343000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1803,8 +1864,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1856,8 +1920,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1909,114 +1976,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-325000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>12000</v>
       </c>
       <c r="I32" s="3">
         <v>12000</v>
       </c>
       <c r="J32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E33" s="3">
         <v>357000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>400000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1387000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2277000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>194000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>111000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-412000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-94000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>158000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-314000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>69800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>78500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2068,119 +2144,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E35" s="3">
         <v>357000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>400000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1387000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2277000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>194000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>111000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-412000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-94000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>158000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-314000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>69800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>78500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2200,8 +2285,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2221,61 +2307,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4744000</v>
+      </c>
+      <c r="E41" s="3">
         <v>3743000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3327000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3314000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>2153000</v>
       </c>
       <c r="I41" s="3">
         <v>2153000</v>
       </c>
       <c r="J41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1571000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1697000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2085000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2384000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2234000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2025000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2926000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>516300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2327,379 +2417,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>509000</v>
+      </c>
+      <c r="E43" s="3">
         <v>407000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>371000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>363000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>311000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>427000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>383000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>248000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>189000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>194000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>173000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>239000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>224000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>190000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>236800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>231400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>2111000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2160000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2159000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2289000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2265000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1930000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1966000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1852000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1898000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1940000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1887000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1890000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2038000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1901000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>124600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>119000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E45" s="3">
         <v>609000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>594000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>921000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>529000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>333000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>372000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>307000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>319000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>356000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>352000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>321000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>455000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>486000</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7859000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6919000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6451000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6887000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5510000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4843000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4874000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3978000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4103000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4575000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4796000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4684000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4742000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5503000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>961600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>866800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4643000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4587000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4556000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4527000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4474000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4459000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4444000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>1234000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1233000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1214000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1233000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1213000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1243000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1218000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1446800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1448600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>24698000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24727000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24809000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24141000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24758000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>16890000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16891000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>12826000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>13226000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13727000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13755000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13806000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13961000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13943000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1564000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1560900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4939000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4983000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4999000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4995000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>5025000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3064000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3037000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1403000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1559000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1585000</v>
       </c>
       <c r="N49" s="3">
         <v>1585000</v>
       </c>
       <c r="O49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="P49" s="3">
         <v>1556000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1586000</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2751,8 +2865,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2804,61 +2921,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3977000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3964000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4124000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3842000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4100000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3346000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3383000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3190000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3997000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4046000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4027000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4020000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3570000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3557000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>163600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>164700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2910,61 +3033,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46116000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45180000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44939000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44392000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43867000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32602000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32629000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>22631000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24118000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>25122000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25396000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25308000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25072000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25807000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4136000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4041000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2984,8 +3113,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3005,264 +3135,277 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1072000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1140000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1155000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1337000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1064000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1213000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1101000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1125000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>944000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1046000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1059000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1118000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1044000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>120000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>127400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E58" s="3">
         <v>26000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>29000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>375000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>66000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>303000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>308000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>43000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>49000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>680000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>57000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>59000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>63000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>116000</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
         <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>698000</v>
+      </c>
+      <c r="E59" s="3">
         <v>713000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>801000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>846000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>441000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>415000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>463000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>524000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>375000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>536000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>595000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>629000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>557000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>386000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>61000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1751000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1811000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1970000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2376000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1844000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1782000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1984000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1668000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1549000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2160000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1698000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1747000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1738000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>191100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>188400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5140000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5142000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5150000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5161000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5494000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5504000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5499000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5695000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5696000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5712000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6344000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6364000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6384000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2800</v>
       </c>
       <c r="R61" s="3">
         <v>2800</v>
@@ -3270,61 +3413,67 @@
       <c r="S61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7575000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7481000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7464000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7028000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>8129000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6849000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6844000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>5883000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6187000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6144000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6088000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6130000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5328000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5248000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>101700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>97800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3376,8 +3525,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3429,8 +3581,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3482,61 +3637,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23317000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23148000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23252000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22960000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23718000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16856000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17031000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15038000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15211000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15766000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15917000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16022000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15458000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16165000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>559400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>542300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3556,8 +3717,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3609,8 +3771,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3662,8 +3827,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3715,8 +3883,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3768,61 +3939,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-8474000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2014900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1956700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -3874,8 +4051,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -3927,8 +4107,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -3980,61 +4163,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>22799000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22032000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>21687000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21432000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20149000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>15746000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15598000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7593000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8907000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9356000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9479000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9286000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9614000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9642000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3576600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3498700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4086,119 +4275,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>882000</v>
+      </c>
+      <c r="E81" s="3">
         <v>357000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>400000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1387000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2277000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>194000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>111000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-412000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-94000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>158000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-314000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1084000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>69800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>78500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4218,61 +4416,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>574000</v>
+      </c>
+      <c r="E83" s="3">
         <v>566000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>524000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>572000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>559000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>466000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>435000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>441000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>363000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>328000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>325000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>434000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>390000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>409000</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4324,8 +4526,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4377,8 +4582,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4430,8 +4638,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4483,8 +4694,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4536,61 +4750,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1859000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1031000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>889000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>875000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1004000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>434000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>520000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>411000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>706000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>141000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>507000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>590000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>532000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>448000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>133100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>204700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4610,61 +4830,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-548000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-509000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-451000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-446000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-502000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-374000</v>
       </c>
       <c r="J91" s="3">
         <v>-374000</v>
       </c>
       <c r="K91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-387000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-313000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-326000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-350000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-307000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-405000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-41300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-50300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4716,8 +4940,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4769,61 +4996,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-454000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-264000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-163000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>362000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-383000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-351000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>422000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-477000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-386000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-347000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-284000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-256000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-306000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>556000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-44700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-48000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -4843,40 +5076,41 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-141000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-124000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-122000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-87000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-67000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-61000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-31000</v>
       </c>
       <c r="K96" s="3">
         <v>-31000</v>
       </c>
       <c r="L96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-31000</v>
       </c>
       <c r="N96" s="3">
         <v>-31000</v>
@@ -4885,19 +5119,22 @@
         <v>-31000</v>
       </c>
       <c r="P96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -4949,8 +5186,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5002,8 +5242,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5055,100 +5298,106 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-348000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-709000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-328000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-369000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-82000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-360000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-57000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-704000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-92000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-72000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-126000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-355000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-4400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-1000</v>
       </c>
       <c r="M101" s="3">
         <v>-1000</v>
       </c>
       <c r="N101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O101" s="3">
         <v>1000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5161,57 +5410,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="E102" s="3">
         <v>416000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>909000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>252000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>582000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-126000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-388000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-299000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>150000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>209000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-901000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>649000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>84000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>155200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>GOLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,251 +665,263 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3279000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3540000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3055000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2721000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2883000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2678000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2063000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2093000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1904000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1837000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1712000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1790000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2228000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1993000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2160000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>316700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>356400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1814000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1927000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1900000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1776000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1987000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1889000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1545000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1490000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1577000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1315000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1176000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1152000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1411000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1270000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1277000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>167400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>196700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1465000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1613000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1155000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>945000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>896000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>789000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>518000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>603000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>327000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>522000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>536000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>638000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>817000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>723000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>883000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>149300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>159700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,64 +942,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E12" s="3">
         <v>72000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>78000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>71000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>40000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>86000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>98000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>74000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>87000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>89000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>97000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>73000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>98000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>100000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>81000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>10900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>8000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,64 +1058,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-72000</v>
+        <v>64000</v>
       </c>
       <c r="E14" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="F14" s="3">
         <v>81000</v>
       </c>
-      <c r="F14" s="3">
-        <v>-221000</v>
-      </c>
       <c r="G14" s="3">
-        <v>-555000</v>
+        <v>-311000</v>
       </c>
       <c r="H14" s="3">
-        <v>-2721000</v>
+        <v>-514000</v>
       </c>
       <c r="I14" s="3">
-        <v>43000</v>
+        <v>-2726000</v>
       </c>
       <c r="J14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K14" s="3">
         <v>44000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>451000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>495000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>67000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1029000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>117000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18000</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1154,8 +1176,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1173,120 +1198,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1737000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1904000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2093000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1583000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>217000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-670000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1681000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1666000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2176000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1988000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1536000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1264000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2514000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1585000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>602000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>192200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>223900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1542000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1636000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>962000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1138000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2666000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3348000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>382000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>427000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-272000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-151000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>176000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>526000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-286000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>408000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1558000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>124500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>132500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1307,288 +1339,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>325000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-12000</v>
       </c>
       <c r="J20" s="3">
         <v>-12000</v>
       </c>
       <c r="K20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2085000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2210000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1526000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1656000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3563000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3894000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>836000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>850000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>167000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>192000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>505000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>855000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>153000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>805000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1973000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>158600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>263000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E22" s="3">
         <v>81000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>80000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>83000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>431000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>109000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>106000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>108000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>115000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>110000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>137000</v>
       </c>
       <c r="N22" s="3">
         <v>137000</v>
       </c>
       <c r="O22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="P22" s="3">
         <v>135000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>144000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>153000</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1462000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1555000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>880000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1049000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2560000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3226000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>264000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>307000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-389000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-281000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>393000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-416000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>271000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1411000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>119600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>127800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>404000</v>
+      </c>
+      <c r="E24" s="3">
         <v>284000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>258000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>386000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>784000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>791000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>41000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>167000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>776000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>105000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>116000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>201000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>394000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>314000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>274000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1643,120 +1691,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1058000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1271000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>622000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>663000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1776000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2435000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>223000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>140000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-386000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-76000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>192000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-810000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-43000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1137000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>84900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>94300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E27" s="3">
         <v>882000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>357000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1387000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2277000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>194000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>111000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-412000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-94000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>158000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-657000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1084000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>69800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>78500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1811,8 +1868,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1849,17 +1909,17 @@
       <c r="N29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" s="3">
         <v>343000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -1867,8 +1927,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1923,8 +1986,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1979,120 +2045,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-325000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>13000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>12000</v>
       </c>
       <c r="J32" s="3">
         <v>12000</v>
       </c>
       <c r="K32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E33" s="3">
         <v>882000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>357000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1387000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2277000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>194000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>111000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-412000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-94000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>158000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-314000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1084000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>69800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>78500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2147,125 +2222,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E35" s="3">
         <v>882000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>357000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1387000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2277000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>194000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>111000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-412000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-94000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>158000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-314000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1084000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>69800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>78500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2286,8 +2370,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2308,64 +2393,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5188000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4744000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3743000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3327000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3314000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>2153000</v>
       </c>
       <c r="J41" s="3">
         <v>2153000</v>
       </c>
       <c r="K41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="L41" s="3">
         <v>1571000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1697000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2085000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2384000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2234000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2025000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2926000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>516300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2420,400 +2509,424 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>558000</v>
+      </c>
+      <c r="E43" s="3">
         <v>509000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>407000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>371000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>363000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>311000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>427000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>383000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>248000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>189000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>194000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>173000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>239000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>224000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>190000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>236800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>231400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="E44" s="3">
         <v>2111000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2160000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2159000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2289000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2265000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1930000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1966000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1852000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1898000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1940000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1887000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1890000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2038000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1901000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>124600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>119000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E45" s="3">
         <v>495000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>609000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>594000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>921000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>529000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>333000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>372000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>307000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>319000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>356000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>352000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>321000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>455000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>486000</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8143000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7859000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6919000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6451000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6887000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5510000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4843000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4874000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3978000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4103000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4575000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4796000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4684000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4742000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5503000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>961600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>866800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4670000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4643000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4587000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4556000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4527000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4474000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4459000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4444000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1234000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1233000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1214000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1233000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1213000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1243000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1218000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1446800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1448600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24698000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24727000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24809000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24141000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24758000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>16890000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16891000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12826000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>13226000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13727000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13755000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13806000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13961000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13943000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1564000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1560900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4938000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4939000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4983000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4999000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4995000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>5025000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3064000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3037000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1403000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1559000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1585000</v>
       </c>
       <c r="O49" s="3">
         <v>1585000</v>
       </c>
       <c r="P49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1556000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1586000</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
       <c r="S49" s="3">
         <v>0</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2868,8 +2981,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2924,64 +3040,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4127000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3977000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3964000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4124000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3842000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4100000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3346000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3383000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3190000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3997000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4046000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4027000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4020000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3570000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3557000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>163600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>164700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3036,64 +3158,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46506000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46116000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45180000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44939000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44392000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>43867000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>32602000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32629000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22631000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>24118000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>25122000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25396000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25308000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25072000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25807000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>4136000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4041000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3114,8 +3242,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3136,279 +3265,292 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1032000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1072000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1140000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1155000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1337000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1064000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1213000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1101000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1125000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>944000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1046000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1059000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1118000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1044000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>120000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>127400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E58" s="3">
         <v>21000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>29000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>375000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>66000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>303000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>308000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>43000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>49000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>680000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>57000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>59000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>63000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>116000</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E59" s="3">
         <v>698000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>713000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>801000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>846000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>441000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>415000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>463000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>524000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>375000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>536000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>595000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>629000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>557000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>386000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>61000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2220000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1751000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1811000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1970000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2376000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1844000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1782000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1984000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1668000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1549000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2160000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1698000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1747000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1738000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1546000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>191100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>188400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5135000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5140000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5142000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5150000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5161000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5494000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5504000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5499000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5695000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5696000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5712000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6344000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6364000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6384000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>2800</v>
       </c>
       <c r="S61" s="3">
         <v>2800</v>
@@ -3416,64 +3558,70 @@
       <c r="T61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7441000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7575000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7481000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7464000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7028000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>8129000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>6849000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6844000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5883000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6187000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6144000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6088000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6130000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5328000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5248000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>101700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>97800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3528,8 +3676,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3584,8 +3735,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3640,64 +3794,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23165000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23317000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23148000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23252000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22960000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23718000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>16856000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>17031000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15038000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15211000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15766000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15917000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16022000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15458000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16165000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>559400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>542300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3718,8 +3878,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3774,8 +3935,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3830,8 +3994,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -3886,8 +4053,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -3942,64 +4112,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7949000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2014900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1956700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4054,8 +4230,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4110,8 +4289,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4166,64 +4348,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>23341000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22799000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22032000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>21687000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21432000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>20149000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>15746000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15598000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7593000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8907000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9356000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9479000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9286000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9614000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9642000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3576600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3498700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4278,125 +4466,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>685000</v>
+      </c>
+      <c r="E81" s="3">
         <v>882000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>357000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1387000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2277000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>194000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>111000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-412000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-94000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>158000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-314000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1084000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>69800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>78500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4417,64 +4614,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>544000</v>
+      </c>
+      <c r="E83" s="3">
         <v>574000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>566000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>524000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>572000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>559000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>466000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>435000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>441000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>363000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>328000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>325000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>434000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>390000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>409000</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4529,8 +4730,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4585,8 +4789,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4641,8 +4848,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4697,8 +4907,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4753,64 +4966,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1638000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1859000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1031000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>889000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>875000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1004000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>434000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>520000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>411000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>706000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>141000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>507000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>590000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>532000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>448000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>133100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>204700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -4831,64 +5050,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-546000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-548000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-509000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-451000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-446000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-502000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-374000</v>
       </c>
       <c r="K91" s="3">
         <v>-374000</v>
       </c>
       <c r="L91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-387000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-313000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-326000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-350000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-307000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-405000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-41300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-50300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -4943,8 +5166,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -4999,64 +5225,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-405000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-454000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-264000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-163000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>362000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-383000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-351000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>422000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-477000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-386000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-347000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-284000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-256000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-306000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>556000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-44700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-48000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5077,43 +5309,44 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-141000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-124000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-122000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-87000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-67000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-61000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-31000</v>
       </c>
       <c r="L96" s="3">
         <v>-31000</v>
       </c>
       <c r="M96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-31000</v>
       </c>
       <c r="O96" s="3">
         <v>-31000</v>
@@ -5122,19 +5355,22 @@
         <v>-31000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-32000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5189,8 +5425,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5245,8 +5484,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5301,106 +5543,112 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-789000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-408000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-348000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-709000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-328000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-369000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-82000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-360000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-57000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-704000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-92000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-72000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-126000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-355000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-4400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1000</v>
       </c>
       <c r="N101" s="3">
         <v>-1000</v>
       </c>
       <c r="O101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P101" s="3">
         <v>1000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5413,60 +5661,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>444000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1001000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>416000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>909000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>252000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>582000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-126000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-388000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-299000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>150000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>209000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-901000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>649000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>84000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>155200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>GOLD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,263 +665,276 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2956000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3279000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3540000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3055000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2721000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2883000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2678000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2063000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2093000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1904000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1837000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1712000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1790000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2228000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1993000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2160000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>316700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>356400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1712000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1814000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1927000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1900000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1776000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1987000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1889000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1545000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1490000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1577000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1315000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1176000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1152000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1411000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1270000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1277000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>167400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>196700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1244000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1465000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1613000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1155000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>945000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>896000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>789000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>518000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>603000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>327000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>522000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>536000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>638000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>817000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>723000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>883000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>149300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>159700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -943,67 +956,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E12" s="3">
         <v>74000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>72000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>78000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>71000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>40000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>86000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>98000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>74000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>87000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>89000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>97000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>73000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>98000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>100000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>81000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1061,67 +1078,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="E14" s="3">
         <v>64000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-80000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>81000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-311000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-514000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>44000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>451000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>495000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>67000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>28000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1029000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>117000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1179,8 +1202,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1199,126 +1225,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1665000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1737000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1904000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2093000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1583000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>217000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-670000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1681000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1666000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2176000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1988000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1536000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1264000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2514000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1585000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>602000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>192200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>223900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1291000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1542000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1636000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>962000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1138000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2666000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3348000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>382000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>427000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-272000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-151000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>176000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>526000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-286000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>408000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1558000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>124500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>132500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1340,303 +1373,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>325000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-12000</v>
       </c>
       <c r="K20" s="3">
         <v>-12000</v>
       </c>
       <c r="L20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>7000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1796000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2085000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2210000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1526000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1656000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3563000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3894000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>836000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>850000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>167000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>192000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>505000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>855000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>153000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>805000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1973000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>158600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>263000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E22" s="3">
         <v>79000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>81000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>80000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>83000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>431000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>109000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>106000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>108000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>115000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>110000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>137000</v>
       </c>
       <c r="O22" s="3">
         <v>137000</v>
       </c>
       <c r="P22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>135000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>144000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>153000</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1462000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1555000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>880000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1049000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2560000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3226000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>264000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>307000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-389000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-281000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>393000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-416000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>271000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1411000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>119600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>127800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>374000</v>
+      </c>
+      <c r="E24" s="3">
         <v>404000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>284000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>258000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>386000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>784000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>791000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>41000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>167000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>776000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>105000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>116000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>201000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>394000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>314000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>274000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>34700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1694,126 +1743,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>830000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1058000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1271000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>622000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>663000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1776000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2435000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>223000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>140000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-386000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-76000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>192000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-810000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-43000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1137000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>84900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>94300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E27" s="3">
         <v>685000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>882000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>357000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1387000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2277000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>194000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>111000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-412000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-94000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>158000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-657000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1084000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>69800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>78500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1871,31 +1929,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>91</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>91</v>
@@ -1912,17 +1973,17 @@
       <c r="O29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" s="3">
         <v>343000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -1930,8 +1991,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1989,8 +2053,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2048,126 +2115,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-325000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>13000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>12000</v>
       </c>
       <c r="K32" s="3">
         <v>12000</v>
       </c>
       <c r="L32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-7000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E33" s="3">
         <v>685000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>882000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>357000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1387000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2277000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>194000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>111000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-412000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-94000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>158000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1084000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>69800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>78500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2225,131 +2301,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E35" s="3">
         <v>685000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>882000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>357000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1387000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2277000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>194000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>111000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-412000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-94000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>158000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1084000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>69800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>78500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2371,8 +2456,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2394,67 +2480,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5672000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5188000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4744000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3743000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3327000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3314000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>2153000</v>
       </c>
       <c r="K41" s="3">
         <v>2153000</v>
       </c>
       <c r="L41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="M41" s="3">
         <v>1571000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1697000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2085000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2384000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2234000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2025000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2926000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>516300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2512,303 +2602,321 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E43" s="3">
         <v>558000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>509000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>407000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>371000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>363000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>311000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>427000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>383000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>248000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>189000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>194000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>173000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>239000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>224000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>190000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>236800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>231400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1776000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1878000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2111000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2160000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2159000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2289000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2265000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1930000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1966000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1852000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1898000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1940000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1887000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1890000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2038000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1901000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>124600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>119000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>806000</v>
+      </c>
+      <c r="E45" s="3">
         <v>519000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>495000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>609000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>594000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>921000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>529000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>333000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>372000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>307000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>319000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>356000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>352000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>321000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>455000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>486000</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8784000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8143000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7859000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6919000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6451000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6887000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5510000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4843000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4874000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3978000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4103000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4575000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4796000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4684000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4742000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5503000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>961600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>866800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4646000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4670000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4643000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4587000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4556000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4527000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4474000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4459000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4444000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1234000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1233000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1214000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1233000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1213000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1243000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1218000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1446800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1448600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2816,117 +2924,123 @@
         <v>24628000</v>
       </c>
       <c r="E48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="F48" s="3">
         <v>24698000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24727000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24809000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24141000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24758000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>16890000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16891000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12826000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>13226000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13727000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13755000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13806000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13961000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13943000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1564000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1560900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4937000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4938000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4939000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4983000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4999000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4995000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>5025000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3064000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3037000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1403000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1559000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1585000</v>
       </c>
       <c r="P49" s="3">
         <v>1585000</v>
       </c>
       <c r="Q49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="R49" s="3">
         <v>1556000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1586000</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
       <c r="T49" s="3">
         <v>0</v>
       </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2984,8 +3098,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3043,67 +3160,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3853000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4127000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3977000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3964000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4124000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3842000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4100000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3346000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3383000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3190000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3997000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4046000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4027000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4020000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3570000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3557000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>163600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>164700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3161,67 +3284,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46848000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46506000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46116000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45180000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44939000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44392000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>43867000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>32602000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32629000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22631000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24118000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>25122000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25396000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25308000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25072000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25807000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>4136000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4041000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3243,8 +3372,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3266,294 +3396,307 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1168000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1458000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1032000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1072000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1140000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1155000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1337000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1064000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1213000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1101000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1125000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>944000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1046000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1059000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1118000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1044000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>120000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>127400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
         <v>20000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>29000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>375000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>66000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>303000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>308000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>43000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>49000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>680000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>57000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>59000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>63000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>116000</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="E59" s="3">
         <v>742000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>698000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>713000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>801000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>846000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>441000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>415000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>463000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>524000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>375000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>536000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>595000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>629000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>557000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>386000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>71100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>61000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2331000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2220000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1751000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1811000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1970000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2376000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1844000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1782000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1984000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1668000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1549000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2160000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1698000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1747000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1738000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1546000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>191100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>188400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5140000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5135000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5140000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5142000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5150000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5161000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5494000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5504000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5499000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5695000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5696000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5712000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6344000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6364000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6384000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>2800</v>
       </c>
       <c r="T61" s="3">
         <v>2800</v>
@@ -3561,67 +3704,73 @@
       <c r="U61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7298000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7441000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7575000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7481000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7464000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7028000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>8129000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>6849000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6844000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5883000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6187000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6144000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6088000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6130000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5328000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5248000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>101700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>97800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3679,8 +3828,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3738,8 +3890,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3797,67 +3952,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23174000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23165000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23317000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23148000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23252000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22960000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23718000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>16856000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17031000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15038000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15211000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15766000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15917000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16022000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15458000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16165000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>559400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>542300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -3879,8 +4040,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -3938,8 +4100,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -3997,8 +4162,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4056,8 +4224,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4115,67 +4286,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7571000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2014900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1956700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4233,8 +4410,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4292,8 +4472,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4351,67 +4534,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>23674000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23341000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22799000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22032000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>21687000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21432000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>20149000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>15746000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15598000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7593000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8907000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9356000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9479000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9286000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9614000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9642000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3576600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3498700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4469,131 +4658,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E81" s="3">
         <v>685000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>882000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>357000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1387000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2277000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>194000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>111000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-412000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-94000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>158000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1084000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>69800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>78500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4615,67 +4813,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>507000</v>
+      </c>
+      <c r="E83" s="3">
         <v>544000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>574000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>566000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>524000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>572000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>559000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>466000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>435000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>441000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>363000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>328000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>325000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>434000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>390000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>409000</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4733,8 +4935,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -4792,8 +4997,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -4851,8 +5059,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -4910,8 +5121,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -4969,67 +5183,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1302000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1638000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1859000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1031000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>889000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>875000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1004000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>434000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>520000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>411000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>706000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>141000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>507000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>590000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>532000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>448000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>133100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>204700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5051,67 +5271,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-539000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-546000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-548000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-509000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-451000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-446000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-502000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-374000</v>
       </c>
       <c r="L91" s="3">
         <v>-374000</v>
       </c>
       <c r="M91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-387000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-313000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-326000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-350000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-307000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-405000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-41300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-50300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5169,8 +5393,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5228,67 +5455,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-405000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-454000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-264000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-163000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>362000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-383000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-351000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>422000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-477000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-386000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-347000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-284000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-256000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-306000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>556000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-44700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-48000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5310,46 +5543,47 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-160000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-141000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-124000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-122000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-87000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-67000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-61000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-31000</v>
       </c>
       <c r="M96" s="3">
         <v>-31000</v>
       </c>
       <c r="N96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-31000</v>
       </c>
       <c r="P96" s="3">
         <v>-31000</v>
@@ -5358,19 +5592,22 @@
         <v>-31000</v>
       </c>
       <c r="R96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-32000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5428,8 +5665,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5487,8 +5727,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5546,112 +5789,118 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-789000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-408000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-348000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-709000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-328000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-369000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-82000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-360000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-57000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-704000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-92000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-72000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-355000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-4400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-1000</v>
       </c>
       <c r="O101" s="3">
         <v>-1000</v>
       </c>
       <c r="P101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -5664,63 +5913,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E102" s="3">
         <v>444000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1001000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>416000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>909000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>252000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>582000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-126000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-388000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-299000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>150000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>209000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-901000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>649000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>84000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>155200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,276 +665,289 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2893000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2956000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3279000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3540000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3055000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2721000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2883000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2678000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2063000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2093000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1904000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1837000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1712000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1790000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2228000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1993000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2160000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>316700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>356400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1712000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1814000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1927000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1900000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1776000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1987000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1889000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1545000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1490000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1577000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1315000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1176000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1152000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1411000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1270000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1277000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>167400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>196700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1244000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1465000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1613000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1155000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>945000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>896000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>789000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>518000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>603000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>327000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>522000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>536000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>638000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>817000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>723000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>883000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>149300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>159700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,70 +970,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E12" s="3">
         <v>61000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>74000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>72000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>78000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>71000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>40000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>86000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>98000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>74000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>87000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>89000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>97000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>73000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>98000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>100000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>81000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>10900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>8000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1081,70 +1098,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-77000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>64000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-80000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>81000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-311000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-514000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>44000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>451000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>495000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>67000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>28000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1029000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>117000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18000</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,8 +1228,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1226,132 +1252,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1765000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1665000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1737000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1904000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2093000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1583000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>217000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-670000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1681000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1666000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2176000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1988000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1536000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1264000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2514000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1585000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>602000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>192200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>223900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1128000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1291000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1542000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1636000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>962000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1138000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2666000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3348000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>382000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>427000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-272000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-151000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>176000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>526000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-286000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>408000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1558000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>124500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>132500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1374,318 +1407,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1000</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>325000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-12000</v>
       </c>
       <c r="L20" s="3">
         <v>-12000</v>
       </c>
       <c r="M20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1796000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2085000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2210000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1526000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1656000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3563000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3894000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>836000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>850000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>167000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>192000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>505000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>855000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>153000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>805000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1973000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>158600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>263000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E22" s="3">
         <v>85000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>79000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>81000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>80000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>83000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>431000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>109000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>106000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>108000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>115000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>110000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>137000</v>
       </c>
       <c r="P22" s="3">
         <v>137000</v>
       </c>
       <c r="Q22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="R22" s="3">
         <v>135000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>144000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>153000</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1037000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1204000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1462000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1555000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>880000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1049000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2560000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3226000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>264000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>307000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-389000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-281000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>393000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-416000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>271000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1411000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>119600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>127800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>343000</v>
+      </c>
+      <c r="E24" s="3">
         <v>374000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>404000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>284000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>258000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>386000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>784000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>791000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>41000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>167000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>776000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>105000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>116000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>201000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>394000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>314000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>274000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>34700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1746,132 +1795,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>694000</v>
+      </c>
+      <c r="E26" s="3">
         <v>830000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1058000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1271000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>622000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>663000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1776000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2435000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>223000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>140000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-386000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-76000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>192000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-810000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-43000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1137000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>84900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>94300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E27" s="3">
         <v>538000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>685000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>882000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>357000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1387000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2277000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>194000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>111000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-412000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-94000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>158000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-657000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1084000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>69800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>78500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1932,8 +1990,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1958,8 +2019,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>91</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>91</v>
@@ -1976,17 +2037,17 @@
       <c r="P29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R29" s="3">
         <v>343000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -1994,8 +2055,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2056,8 +2120,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2118,132 +2185,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1000</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-325000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>13000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>12000</v>
       </c>
       <c r="L32" s="3">
         <v>12000</v>
       </c>
       <c r="M32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E33" s="3">
         <v>538000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>685000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>882000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>357000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1387000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2277000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>194000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>111000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-412000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-94000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>158000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-314000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1084000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>69800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>78500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2304,137 +2380,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E35" s="3">
         <v>538000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>685000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>882000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>357000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1387000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2277000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>194000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>111000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-412000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-94000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>158000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-314000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1084000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>69800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>78500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2457,8 +2542,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2481,70 +2567,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5138000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5672000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5188000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4744000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3743000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3327000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3314000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>2153000</v>
       </c>
       <c r="L41" s="3">
         <v>2153000</v>
       </c>
       <c r="M41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="N41" s="3">
         <v>1571000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1697000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2085000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2384000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2234000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2025000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2926000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>516300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2605,442 +2695,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E43" s="3">
         <v>530000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>558000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>509000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>407000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>371000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>363000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>311000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>427000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>383000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>248000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>189000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>194000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>173000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>239000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>224000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>190000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>236800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>231400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1825000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1776000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1878000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2111000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2160000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2159000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2289000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2265000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1930000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1966000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1852000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1898000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1940000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1887000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1890000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2038000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1901000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>124600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>119000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>522000</v>
+      </c>
+      <c r="E45" s="3">
         <v>806000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>519000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>495000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>609000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>594000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>921000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>529000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>333000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>372000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>307000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>319000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>356000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>352000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>321000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>455000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>486000</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8039000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8784000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8143000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7859000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6919000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6451000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6887000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5510000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4843000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4874000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3978000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4103000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4575000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4796000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4684000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4742000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5503000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>961600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>866800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4715000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4646000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4670000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4643000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4587000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4556000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4527000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4474000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4459000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4444000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1234000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1233000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1214000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1213000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1243000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1218000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1446800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1448600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>24628000</v>
+        <v>24755000</v>
       </c>
       <c r="E48" s="3">
         <v>24628000</v>
       </c>
       <c r="F48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="G48" s="3">
         <v>24698000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24727000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24809000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24141000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24758000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16890000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16891000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12826000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>13226000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13727000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13755000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13806000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13961000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13943000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1564000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1560900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4927000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4937000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4938000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4939000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4983000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4999000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4995000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>5025000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3064000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3037000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1403000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1559000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1585000</v>
       </c>
       <c r="Q49" s="3">
         <v>1585000</v>
       </c>
       <c r="R49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="S49" s="3">
         <v>1556000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1586000</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
       <c r="U49" s="3">
         <v>0</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3101,8 +3215,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3163,70 +3280,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4092000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3853000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4127000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3977000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3964000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4124000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3842000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4100000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3346000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3383000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3190000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3997000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4046000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4027000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4020000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3570000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3557000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>163600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>164700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3287,70 +3410,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46528000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46848000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46506000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46116000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45180000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44939000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44392000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43867000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32602000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32629000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22631000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>24118000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>25122000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25396000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25308000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25072000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25807000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4136000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4041000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3373,8 +3502,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3397,309 +3527,322 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1157000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1168000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1458000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1032000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1072000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1140000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1155000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1337000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1064000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1213000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1101000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1125000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>944000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1046000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1059000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1118000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1044000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>120000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>127400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>20000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>29000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>375000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>66000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>303000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>308000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>43000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>49000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>680000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>57000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>59000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>63000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>116000</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>626000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1150000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>742000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>698000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>713000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>801000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>846000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>441000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>415000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>463000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>524000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>375000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>536000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>595000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>629000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>557000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>386000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>71100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>61000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2331000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2220000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1751000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1811000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1970000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2376000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1844000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1782000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1984000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1668000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1549000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2160000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1698000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1747000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1738000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1546000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>191100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>188400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5137000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5140000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5135000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5140000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5142000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5150000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5161000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5494000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5504000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5499000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5695000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5696000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5712000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6344000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6364000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6384000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>2800</v>
       </c>
       <c r="U61" s="3">
         <v>2800</v>
@@ -3707,70 +3850,76 @@
       <c r="V61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7419000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7298000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7441000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7575000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7481000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7464000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7028000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>8129000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6849000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6844000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5883000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6187000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6144000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6088000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6130000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5328000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5248000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>101700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>97800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3831,8 +3980,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3893,8 +4045,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -3955,70 +4110,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>22839000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23174000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23165000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23317000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23148000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23252000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22960000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23718000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16856000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17031000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>15038000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15211000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15766000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15917000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16022000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15458000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16165000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>559400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>542300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4041,8 +4202,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4103,8 +4265,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4165,8 +4330,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4227,8 +4395,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4289,70 +4460,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7320000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2014900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1956700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4413,8 +4590,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4475,8 +4655,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4537,70 +4720,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>23689000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23674000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23341000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22799000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22032000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>21687000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21432000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>20149000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15746000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15598000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7593000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8907000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9356000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9479000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9286000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9614000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9642000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3576600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3498700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4661,137 +4850,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>411000</v>
+      </c>
+      <c r="E81" s="3">
         <v>538000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>685000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>882000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>357000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1387000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2277000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>194000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>111000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-412000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-94000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>158000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-314000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1084000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>69800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>78500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -4814,70 +5012,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E83" s="3">
         <v>507000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>544000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>574000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>566000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>524000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>572000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>559000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>466000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>435000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>441000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>363000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>328000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>325000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>434000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>390000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>409000</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -4938,8 +5140,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5000,8 +5205,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5062,8 +5270,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5124,8 +5335,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5186,70 +5400,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>639000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1302000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1638000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1859000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1031000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>889000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>875000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1004000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>434000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>520000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>411000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>706000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>141000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>507000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>590000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>532000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>448000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>133100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>204700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5272,70 +5492,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-658000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-539000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-546000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-548000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-509000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-451000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-446000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-502000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-374000</v>
       </c>
       <c r="M91" s="3">
         <v>-374000</v>
       </c>
       <c r="N91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-387000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-313000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-326000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-350000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-307000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-405000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-41300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-50300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5396,8 +5620,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5458,70 +5685,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-603000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-408000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-405000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-454000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-264000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-163000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>362000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-383000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-351000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>422000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-477000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-386000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-347000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-284000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-256000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-306000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>556000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-44700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-48000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5544,49 +5777,50 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-158000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-160000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-141000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-124000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-122000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-87000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-67000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-61000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-31000</v>
       </c>
       <c r="N96" s="3">
         <v>-31000</v>
       </c>
       <c r="O96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-31000</v>
       </c>
       <c r="Q96" s="3">
         <v>-31000</v>
@@ -5595,19 +5829,22 @@
         <v>-31000</v>
       </c>
       <c r="S96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-32000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5668,8 +5905,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5730,8 +5970,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -5792,118 +6035,124 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-570000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-409000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-789000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-408000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-348000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-709000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-328000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-369000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-82000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-360000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-57000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-704000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-92000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-72000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-126000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-355000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-4400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1000</v>
       </c>
       <c r="P101" s="3">
         <v>-1000</v>
       </c>
       <c r="Q101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R101" s="3">
         <v>1000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -5916,66 +6165,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-534000</v>
+      </c>
+      <c r="E102" s="3">
         <v>484000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>444000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1001000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>416000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>909000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>252000</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>582000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-126000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-388000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-299000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>150000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>209000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-901000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>649000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>84000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>155200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,289 +665,302 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2826000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2893000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2956000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3279000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3540000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3055000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2721000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2883000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2678000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2063000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2093000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1904000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1837000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1712000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1790000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2228000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1993000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2160000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>316700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>356400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1768000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1704000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1712000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1814000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1927000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1900000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1776000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1987000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1889000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1545000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1490000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1577000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1315000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1176000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1152000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1411000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1270000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1277000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>167400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>196700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1058000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1189000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1244000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1465000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1613000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1155000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>945000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>896000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>789000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>518000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>603000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>327000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>522000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>536000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>638000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>817000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>723000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>883000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>149300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>159700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -971,73 +984,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E12" s="3">
         <v>77000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>61000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>74000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>72000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>78000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>71000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>40000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>86000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>98000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>74000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>87000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>89000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>97000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>73000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>98000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>100000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>81000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>10900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>8000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1101,73 +1118,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E14" s="3">
         <v>23000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-77000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>64000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-80000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>81000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-311000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-514000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>44000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>451000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>495000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>67000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1029000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>117000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1231,8 +1254,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1253,138 +1279,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1798000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1765000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1665000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1737000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1904000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2093000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1583000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>217000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-670000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1681000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1666000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2176000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1988000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1536000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1264000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2514000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1585000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>602000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>192200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>223900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1028000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1128000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1291000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1542000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1636000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>962000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1138000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2666000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3348000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>382000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>427000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-272000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-151000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>176000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>526000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-286000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>408000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1558000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>124500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>132500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1408,333 +1441,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1000</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>325000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-12000</v>
       </c>
       <c r="M20" s="3">
         <v>-12000</v>
       </c>
       <c r="N20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>5000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1563000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1618000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1796000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2085000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2210000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1526000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1656000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3563000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3894000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>836000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>850000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>167000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>192000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>505000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>855000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>153000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>805000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1973000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>158600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>263000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E22" s="3">
         <v>81000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>85000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>79000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>81000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>80000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>83000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>431000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>109000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>106000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>108000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>115000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>110000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>137000</v>
       </c>
       <c r="Q22" s="3">
         <v>137000</v>
       </c>
       <c r="R22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="S22" s="3">
         <v>135000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>144000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>153000</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>935000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1037000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1204000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1462000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1555000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>880000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1049000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2560000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3226000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>264000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>307000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-389000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-281000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>393000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-416000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>271000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1411000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>119600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>127800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>323000</v>
+      </c>
+      <c r="E24" s="3">
         <v>343000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>374000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>404000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>284000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>258000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>386000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>784000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>791000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>167000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>776000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>105000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>116000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>201000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>394000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>314000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>274000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>34700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>33500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1798,138 +1847,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E26" s="3">
         <v>694000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>830000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1058000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1271000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>622000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>663000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1776000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2435000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>223000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>140000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-386000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>192000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-810000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-43000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1137000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>84900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>94300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E27" s="3">
         <v>411000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>538000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>685000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>882000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>357000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1387000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2277000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>194000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>111000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-412000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>158000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-657000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1084000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>69800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>78500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1993,8 +2051,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2022,8 +2083,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>91</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>91</v>
@@ -2040,17 +2101,17 @@
       <c r="Q29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="S29" s="3">
         <v>343000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2058,8 +2119,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2123,8 +2187,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2188,138 +2255,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1000</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-325000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>13000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>12000</v>
       </c>
       <c r="M32" s="3">
         <v>12000</v>
       </c>
       <c r="N32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-5000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E33" s="3">
         <v>411000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>538000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>685000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>882000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>357000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1387000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2277000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>194000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>111000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-412000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>158000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-314000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1084000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>69800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>78500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2383,143 +2459,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E35" s="3">
         <v>411000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>538000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>685000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>882000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>357000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1387000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2277000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>194000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>111000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-412000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>158000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-314000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1084000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>69800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>78500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2543,8 +2628,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2568,73 +2654,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5043000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5138000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5672000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5188000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4744000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3743000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3327000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3314000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>2153000</v>
       </c>
       <c r="M41" s="3">
         <v>2153000</v>
       </c>
       <c r="N41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="O41" s="3">
         <v>1571000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1697000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2085000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2384000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2234000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2025000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2926000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>516300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2698,463 +2788,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>600000</v>
+      </c>
+      <c r="E43" s="3">
         <v>554000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>530000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>558000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>509000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>407000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>371000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>363000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>311000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>427000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>383000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>248000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>189000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>194000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>173000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>239000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>224000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>190000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>236800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>231400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1821000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1825000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1776000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1878000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2111000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2160000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2159000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2289000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2265000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1930000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1966000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1852000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1898000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1940000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1887000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1890000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2038000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1901000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>124600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>119000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E45" s="3">
         <v>522000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>806000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>519000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>495000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>609000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>594000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>921000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>529000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>333000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>372000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>307000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>319000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>356000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>352000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>321000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>455000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>486000</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8011000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8039000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8784000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8143000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7859000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6919000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6451000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6887000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5510000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4843000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4874000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3978000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4103000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4575000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4796000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4684000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4742000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5503000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>961600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>866800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4762000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4715000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4646000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4670000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4643000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4587000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4556000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4527000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4474000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4459000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4444000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1234000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1233000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1214000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1233000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1213000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1243000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1218000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1446800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1448600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>24747000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>24628000</v>
       </c>
       <c r="F48" s="3">
         <v>24628000</v>
       </c>
       <c r="G48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="H48" s="3">
         <v>24698000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24727000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24809000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24141000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24758000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16890000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16891000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12826000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>13226000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13727000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13755000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13806000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13961000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13943000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1564000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1560900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4920000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4927000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4937000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4938000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4939000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4983000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4999000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4995000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5025000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3064000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3037000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1403000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1559000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1585000</v>
       </c>
       <c r="R49" s="3">
         <v>1585000</v>
       </c>
       <c r="S49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="T49" s="3">
         <v>1556000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1586000</v>
       </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
       <c r="V49" s="3">
         <v>0</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3218,8 +3332,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3283,73 +3400,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4194000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4092000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3853000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4127000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3977000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3964000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4124000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3842000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4100000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3346000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3383000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3190000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3997000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4046000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4027000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4020000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3570000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3557000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>163600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>164700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3413,73 +3536,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46634000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46528000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46848000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46506000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46116000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45180000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44939000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44392000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43867000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32602000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32629000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22631000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>24118000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>25122000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25396000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25308000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25072000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25807000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4136000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4041000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3503,8 +3632,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3528,73 +3658,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1444000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1157000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1168000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1458000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1032000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1072000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1140000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1155000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1337000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1064000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1213000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1101000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1125000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>944000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1046000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1059000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1118000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1044000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>120000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>127400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3602,250 +3736,259 @@
         <v>15000</v>
       </c>
       <c r="E58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F58" s="3">
         <v>13000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>20000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>29000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>375000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>66000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>303000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>308000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>43000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>49000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>680000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>57000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>59000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>63000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>116000</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E59" s="3">
         <v>626000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1150000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>742000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>698000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>713000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>801000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>846000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>441000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>415000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>463000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>524000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>375000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>536000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>595000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>629000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>557000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>386000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>71100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>61000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>1980000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1798000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2331000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2220000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1751000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1811000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1970000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2376000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1844000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1782000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1984000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1668000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1549000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2160000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1698000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1747000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1738000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1546000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>191100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>188400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5139000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5137000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5140000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5135000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5140000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5142000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5150000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5161000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5494000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5504000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5499000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5695000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5696000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5712000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6344000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6364000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6384000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>2800</v>
       </c>
       <c r="V61" s="3">
         <v>2800</v>
@@ -3853,73 +3996,79 @@
       <c r="W61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7425000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7419000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7298000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7441000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7575000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7481000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7464000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7028000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8129000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6849000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6844000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5883000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6187000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6144000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6088000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6130000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5328000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5248000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>101700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>97800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -3983,8 +4132,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4048,8 +4200,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4113,73 +4268,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23016000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22839000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23174000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23165000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23317000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23148000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23252000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22960000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23718000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16856000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17031000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15038000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15211000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15766000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15917000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16022000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15458000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16165000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>559400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>542300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4203,8 +4364,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4268,8 +4430,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4333,8 +4498,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4398,8 +4566,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4463,73 +4634,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7132000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2014900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1956700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4593,8 +4770,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4658,8 +4838,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4723,73 +4906,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>23618000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23689000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23674000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23341000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>22799000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22032000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>21687000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21432000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20149000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15746000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15598000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7593000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8907000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9356000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9479000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9286000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9614000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9642000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3576600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3498700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -4853,143 +5042,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>347000</v>
+      </c>
+      <c r="E81" s="3">
         <v>411000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>538000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>685000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>882000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>357000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1387000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2277000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>194000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>111000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-412000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-94000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>158000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-314000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1084000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>69800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>78500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5013,73 +5211,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>538000</v>
+      </c>
+      <c r="E83" s="3">
         <v>500000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>507000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>544000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>574000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>566000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>524000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>572000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>559000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>466000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>435000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>441000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>363000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>328000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>325000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>434000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>390000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>409000</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
       <c r="V83" s="3">
         <v>0</v>
       </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5143,8 +5345,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5208,8 +5413,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5273,8 +5481,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5338,8 +5549,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5403,73 +5617,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E89" s="3">
         <v>639000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1302000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1638000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1859000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1031000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>889000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>875000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1004000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>434000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>520000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>411000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>706000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>141000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>507000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>590000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>532000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>448000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>133100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>204700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5493,73 +5713,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-569000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-658000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-539000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-546000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-548000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-509000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-451000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-446000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-502000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-374000</v>
       </c>
       <c r="N91" s="3">
         <v>-374000</v>
       </c>
       <c r="O91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-387000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-313000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-326000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-350000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-307000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-405000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-41300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-50300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5623,8 +5847,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5688,73 +5915,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-499000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-603000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-408000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-405000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-454000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-264000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-163000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>362000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-383000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-351000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>422000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-477000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-386000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-347000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-284000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-256000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-306000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>556000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-44700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-48000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -5778,52 +6011,53 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-158000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-159000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-158000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-160000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-141000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-124000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-122000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-87000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-67000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-61000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-31000</v>
       </c>
       <c r="O96" s="3">
         <v>-31000</v>
       </c>
       <c r="P96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-31000</v>
       </c>
       <c r="R96" s="3">
         <v>-31000</v>
@@ -5832,19 +6066,22 @@
         <v>-31000</v>
       </c>
       <c r="T96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-32000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -5908,8 +6145,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -5973,8 +6213,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6038,73 +6281,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-646000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-570000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-409000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-789000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-408000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-348000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-709000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-328000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-369000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-82000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-360000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-57000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-704000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-72000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-126000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-355000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-4400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6112,50 +6361,50 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q101" s="3">
         <v>-1000</v>
       </c>
       <c r="R101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S101" s="3">
         <v>1000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6168,69 +6417,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-534000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>484000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>444000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1001000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>416000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>909000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>252000</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>582000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-126000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-388000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-299000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>150000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>209000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-901000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>649000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>84000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>155200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,302 +665,314 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3310000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2826000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2893000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2956000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3279000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3540000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3055000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2721000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2883000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2678000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2063000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2093000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1904000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1837000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1712000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1790000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2228000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1993000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2160000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>316700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>356400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1905000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1768000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1704000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1712000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1814000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1927000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1900000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1776000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1987000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1889000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1545000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1490000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1577000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1315000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1176000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1152000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1411000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1270000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1277000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>167400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>196700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1058000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1189000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1244000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1465000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1613000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1155000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>945000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>896000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>789000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>518000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>603000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>327000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>522000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>536000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>638000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>817000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>723000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>883000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>149300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>159700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -985,76 +997,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E12" s="3">
         <v>67000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>77000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>61000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>74000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>72000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>78000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>71000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>40000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>86000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>98000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>74000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>87000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>89000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>97000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>73000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>98000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>100000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>81000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1121,76 +1137,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E14" s="3">
         <v>27000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-77000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>64000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-80000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>81000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-311000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-514000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>44000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>451000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>495000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>67000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1029000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>117000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,8 +1279,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1280,144 +1305,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1770000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1798000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1765000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1665000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1737000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1904000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2093000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1583000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>217000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-670000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1681000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1666000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2176000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1988000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1536000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1264000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2514000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1585000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>602000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>192200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>223900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1540000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1028000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1128000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1291000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1542000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1636000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>962000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1138000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2666000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3348000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>382000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>427000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-272000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>176000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>526000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-286000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>408000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1558000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>124500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>132500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1442,348 +1474,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1000</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>325000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-12000</v>
       </c>
       <c r="N20" s="3">
         <v>-12000</v>
       </c>
       <c r="O20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>5000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>7000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2098000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1563000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1618000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1796000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2085000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2210000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1526000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1656000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3563000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3894000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>836000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>850000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>167000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>192000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>505000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>855000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>153000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>805000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1973000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>158600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>263000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E22" s="3">
         <v>90000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>81000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>85000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>79000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>81000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>80000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>83000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>431000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>109000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>106000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>108000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>115000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>110000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>137000</v>
       </c>
       <c r="R22" s="3">
         <v>137000</v>
       </c>
       <c r="S22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="T22" s="3">
         <v>135000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>144000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>153000</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1456000</v>
+      </c>
+      <c r="E23" s="3">
         <v>935000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1037000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1204000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1462000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1555000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>880000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1049000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2560000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3226000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>264000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>307000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-389000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-281000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>40000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>393000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-416000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>271000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1411000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>119600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>127800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>304000</v>
+      </c>
+      <c r="E24" s="3">
         <v>323000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>343000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>374000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>404000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>284000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>258000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>386000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>784000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>791000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>167000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>776000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>105000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>116000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>201000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>394000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>314000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>274000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>34700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>33500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1850,144 +1898,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="E26" s="3">
         <v>612000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>694000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>830000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1058000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1271000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>622000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>663000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1776000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2435000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>223000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>140000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-386000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-76000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>192000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-810000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-43000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1137000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>84900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>94300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E27" s="3">
         <v>347000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>411000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>538000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>685000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>882000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>357000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1387000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2277000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>194000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>111000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-412000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-94000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>158000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-657000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1084000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>69800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>78500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2054,8 +2111,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2086,8 +2146,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>91</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>91</v>
@@ -2104,17 +2164,17 @@
       <c r="R29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T29" s="3">
         <v>343000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2122,8 +2182,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +2253,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2258,144 +2324,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1000</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-325000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>13000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12000</v>
       </c>
       <c r="N32" s="3">
         <v>12000</v>
       </c>
       <c r="O32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-5000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-7000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E33" s="3">
         <v>347000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>411000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>538000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>685000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>882000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>357000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1387000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2277000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>194000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>111000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-412000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-94000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>158000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-314000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1084000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>69800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>78500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2462,149 +2537,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E35" s="3">
         <v>347000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>411000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>538000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>685000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>882000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>357000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1387000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2277000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>194000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>111000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-412000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-94000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>158000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-314000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1084000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>69800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>78500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2629,8 +2713,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2655,76 +2740,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5280000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5043000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5138000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5672000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5188000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4744000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3743000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3327000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3314000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>2153000</v>
       </c>
       <c r="N41" s="3">
         <v>2153000</v>
       </c>
       <c r="O41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="P41" s="3">
         <v>1571000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1697000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2085000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2384000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2234000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2025000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2926000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>516300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2791,484 +2880,508 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E43" s="3">
         <v>600000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>554000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>530000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>558000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>509000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>407000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>371000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>363000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>311000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>427000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>383000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>248000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>189000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>194000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>173000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>239000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>224000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>190000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>236800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>231400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1734000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1821000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1825000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1776000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1878000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2111000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2160000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2159000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2289000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2265000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1930000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1966000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1852000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1898000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1940000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1887000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1890000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2038000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1901000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>124600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>119000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E45" s="3">
         <v>547000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>522000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>806000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>519000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>495000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>609000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>594000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>921000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>529000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>333000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>372000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>307000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>319000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>356000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>352000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>321000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>455000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>486000</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8249000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8011000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8039000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8784000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8143000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7859000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6919000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6451000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6887000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5510000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4843000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4874000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3978000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4103000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4575000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4796000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4684000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4742000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5503000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>961600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>866800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4594000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4762000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4715000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4646000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4670000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4643000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4587000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4556000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4527000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4474000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4459000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4444000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1234000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1233000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1214000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1233000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1213000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1243000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1218000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1446800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1448600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>24954000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24747000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>24628000</v>
       </c>
       <c r="G48" s="3">
         <v>24628000</v>
       </c>
       <c r="H48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="I48" s="3">
         <v>24698000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24727000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24809000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24141000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24758000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16890000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16891000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12826000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>13226000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13727000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13755000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13806000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13961000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13943000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1564000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1560900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4919000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4920000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4927000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4937000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4938000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4939000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4983000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4999000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4995000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5025000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3064000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3037000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1403000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1559000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1585000</v>
       </c>
       <c r="S49" s="3">
         <v>1585000</v>
       </c>
       <c r="T49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="U49" s="3">
         <v>1556000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1586000</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
       <c r="W49" s="3">
         <v>0</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3335,8 +3448,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3403,76 +3519,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>4174000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4194000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4092000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3853000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4127000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3977000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3964000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4124000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3842000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4100000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3346000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3383000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3190000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3997000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4046000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4027000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4020000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3570000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3557000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>163600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>164700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3539,76 +3661,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46890000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46634000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46528000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46848000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46506000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46116000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45180000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44939000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44392000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43867000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>32602000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32629000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22631000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24118000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>25122000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25396000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25308000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25072000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25807000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>4136000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4041000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3633,8 +3761,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3659,76 +3788,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1444000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1157000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1168000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1458000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1032000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1072000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1140000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1155000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1337000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1064000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1213000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1101000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1125000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>944000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1046000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1059000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1118000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1044000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>120000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>127400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
@@ -3739,259 +3872,268 @@
         <v>15000</v>
       </c>
       <c r="F58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>20000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>26000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>29000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>375000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>66000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>303000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>308000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>43000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>49000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>680000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>57000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>59000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>63000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>116000</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>623000</v>
+      </c>
+      <c r="E59" s="3">
         <v>521000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>626000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1150000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>742000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>698000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>713000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>801000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>846000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>441000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>415000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>463000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>524000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>375000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>536000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>595000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>629000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>557000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>386000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>71100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>61000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2086000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1980000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1798000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2331000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2220000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1751000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1811000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1970000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2376000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1844000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1782000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1984000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1668000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1549000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2160000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1698000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1747000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1738000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1546000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>191100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>188400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5135000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5139000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5137000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5140000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5135000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5140000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5142000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5150000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5161000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5494000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5504000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5499000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5695000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5696000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5712000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6344000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6364000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6384000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>2800</v>
       </c>
       <c r="W61" s="3">
         <v>2800</v>
@@ -3999,76 +4141,82 @@
       <c r="X61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7362000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7425000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7419000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7298000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7441000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7575000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7481000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7464000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7028000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8129000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6849000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6844000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5883000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6187000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6144000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6088000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6130000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5328000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5248000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>101700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>97800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4135,8 +4283,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4203,8 +4354,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4271,76 +4425,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23033000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23016000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22839000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23174000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23165000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23317000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23148000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23252000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22960000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23718000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16856000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17031000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15038000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15211000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15766000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15917000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16022000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15458000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16165000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>559400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>542300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4365,8 +4525,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4433,8 +4594,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4501,8 +4665,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4569,8 +4736,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4637,76 +4807,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-6566000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7132000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2014900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1956700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4773,8 +4949,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -4841,8 +5020,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -4909,76 +5091,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>23857000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23618000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23689000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23674000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23341000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>22799000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22032000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>21687000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21432000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20149000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15746000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15598000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7593000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8907000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9356000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9479000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9286000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9614000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9642000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3576600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3498700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5045,149 +5233,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E81" s="3">
         <v>347000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>411000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>538000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>685000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>882000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>357000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1387000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2277000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>194000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>111000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-412000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-94000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>158000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-314000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1084000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>69800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>78500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5212,76 +5409,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E83" s="3">
         <v>538000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>507000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>544000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>574000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>566000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>524000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>572000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>559000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>466000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>435000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>441000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>363000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>328000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>325000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>434000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>390000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>409000</v>
       </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5348,8 +5549,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5416,8 +5620,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5484,8 +5691,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5552,8 +5762,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5620,76 +5833,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1387000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1050000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>639000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1302000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1638000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1859000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1031000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>889000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>875000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1004000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>434000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>520000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>411000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>706000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>141000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>507000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>590000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>532000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>448000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>133100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>204700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5714,76 +5933,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-669000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-569000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-658000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-539000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-546000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-548000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-509000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-451000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-446000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-502000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-374000</v>
       </c>
       <c r="O91" s="3">
         <v>-374000</v>
       </c>
       <c r="P91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-387000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-313000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-326000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-350000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-307000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-405000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-41300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-50300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -5850,8 +6073,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -5918,76 +6144,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-387000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-499000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-603000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-408000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-405000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-454000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-264000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-163000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>362000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-383000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-351000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>422000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-477000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-386000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-347000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-284000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-256000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-306000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>556000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-44700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-48000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6012,55 +6244,56 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-159000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-158000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-159000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-158000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-160000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-141000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-124000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-122000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-87000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-67000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-61000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-31000</v>
       </c>
       <c r="P96" s="3">
         <v>-31000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-31000</v>
       </c>
       <c r="S96" s="3">
         <v>-31000</v>
@@ -6069,19 +6302,22 @@
         <v>-31000</v>
       </c>
       <c r="U96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-32000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6148,8 +6384,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6216,8 +6455,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6284,76 +6526,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-763000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-646000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-570000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-409000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-789000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-408000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-348000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-709000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-328000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-369000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-82000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-360000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-57000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-704000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-92000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-72000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-126000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-355000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-4400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6364,50 +6612,50 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-1000</v>
       </c>
       <c r="R101" s="3">
         <v>-1000</v>
       </c>
       <c r="S101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T101" s="3">
         <v>1000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6420,72 +6668,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-95000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-534000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>484000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>444000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1001000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>416000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>909000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>252000</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>582000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-126000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-388000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-299000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>150000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>209000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-901000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>649000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>84000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>155200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,314 +665,327 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2853000</v>
+      </c>
+      <c r="E8" s="3">
         <v>3310000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2826000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2893000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2956000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3279000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3540000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3055000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2721000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2883000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2678000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2063000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2093000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1904000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1837000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1712000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1790000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2228000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1993000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2160000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>316700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>356400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1739000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1905000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1768000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1704000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1712000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1814000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1927000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1900000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1776000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1987000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1889000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1545000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1490000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1577000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1315000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1176000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1152000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1411000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1270000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1277000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>167400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>196700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1114000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1405000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1058000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1189000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1244000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1465000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1613000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1155000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>945000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>896000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>789000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>518000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>603000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>327000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>522000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>536000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>638000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>817000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>723000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>883000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>149300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>159700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,79 +1011,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E12" s="3">
         <v>82000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>77000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>61000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>74000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>72000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>78000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>71000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>86000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>98000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>74000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>87000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>89000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>97000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>73000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>98000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>100000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>81000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,79 +1157,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E14" s="3">
         <v>57000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-77000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>64000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-80000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>81000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-311000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-514000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>44000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>451000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>495000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>67000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>28000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1029000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>117000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1282,8 +1305,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1306,150 +1332,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1758000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1770000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1798000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1765000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1665000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1737000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1904000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2093000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1583000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>217000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-670000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1681000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1666000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2176000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1988000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1536000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1264000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2514000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1585000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>602000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>192200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>223900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1095000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1540000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1028000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1128000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1291000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1542000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1636000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>962000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1138000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2666000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3348000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>382000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>427000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-272000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-151000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>176000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>526000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-286000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>408000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1558000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>124500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>132500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1475,363 +1508,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>325000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-12000</v>
       </c>
       <c r="O20" s="3">
         <v>-12000</v>
       </c>
       <c r="P20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>5000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1553000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2098000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1563000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1618000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1796000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2085000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2210000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1526000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1656000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3563000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3894000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>836000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>850000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>167000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>192000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>505000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>855000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>153000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>805000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1973000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>158600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>263000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E22" s="3">
         <v>85000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>90000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>81000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>85000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>79000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>81000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>80000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>83000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>431000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>109000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>106000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>108000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>115000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>110000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>137000</v>
       </c>
       <c r="S22" s="3">
         <v>137000</v>
       </c>
       <c r="T22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="U22" s="3">
         <v>135000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>144000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>153000</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1456000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>935000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1037000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1204000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1462000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1555000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>880000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1049000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2560000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3226000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>264000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>307000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-389000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-281000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>40000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>393000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-416000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>271000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1411000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>119600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>127800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E24" s="3">
         <v>304000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>323000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>343000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>374000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>404000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>284000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>258000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>386000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>784000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>791000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>167000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>776000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>105000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>116000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>201000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>394000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>314000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>274000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>34700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>33500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1901,150 +1950,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>706000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1152000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>612000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>694000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>830000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1058000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1271000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>622000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>663000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1776000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2435000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>223000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>140000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-386000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-76000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>192000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-810000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-43000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1137000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>84900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>94300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E27" s="3">
         <v>726000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>347000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>411000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>538000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>685000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>882000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>357000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>400000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1387000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2277000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>194000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>111000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-412000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-94000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>158000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-657000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1084000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>69800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>78500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2114,8 +2172,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2149,8 +2210,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>91</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>91</v>
@@ -2167,17 +2228,17 @@
       <c r="S29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U29" s="3">
         <v>343000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2185,8 +2246,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2320,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2327,150 +2394,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-325000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>13000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>12000</v>
       </c>
       <c r="O32" s="3">
         <v>12000</v>
       </c>
       <c r="P32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-5000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E33" s="3">
         <v>726000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>347000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>411000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>538000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>685000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>882000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>357000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>400000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1387000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2277000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>194000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>111000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-412000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-94000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>158000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-314000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1084000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>69800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>78500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2540,155 +2616,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E35" s="3">
         <v>726000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>347000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>411000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>538000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>685000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>882000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>357000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>400000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1387000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2277000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>194000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>111000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-412000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-94000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>158000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-314000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1084000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>69800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>78500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2714,8 +2799,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2741,79 +2827,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5887000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5280000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5043000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5138000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5672000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5188000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4744000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3743000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3327000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3314000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>2153000</v>
       </c>
       <c r="O41" s="3">
         <v>2153000</v>
       </c>
       <c r="P41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1571000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1697000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2085000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2384000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2234000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2025000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2926000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>516300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2883,505 +2973,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>640000</v>
+      </c>
+      <c r="E43" s="3">
         <v>623000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>554000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>530000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>558000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>509000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>407000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>371000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>363000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>311000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>427000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>383000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>248000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>189000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>194000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>173000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>239000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>224000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>190000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>236800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>231400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1766000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1734000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1821000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1825000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1776000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1878000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2111000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2160000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2159000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2289000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2265000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1930000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1966000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1852000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1898000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1940000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1887000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1890000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2038000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1901000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>124600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>119000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E45" s="3">
         <v>612000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>547000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>522000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>806000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>519000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>495000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>609000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>594000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>921000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>529000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>333000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>372000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>307000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>319000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>356000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>352000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>321000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>455000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>486000</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>9015000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8249000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8011000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8039000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8784000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8143000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7859000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6919000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6451000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6887000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5510000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4843000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4874000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3978000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4103000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4575000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4796000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4684000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4742000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5503000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>961600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>866800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4334000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4594000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4762000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4715000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4646000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4670000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4643000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4587000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4556000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4527000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4474000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4459000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4444000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1234000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1233000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1214000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1233000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1213000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1243000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1218000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1446800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1448600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>25153000</v>
+      </c>
+      <c r="E48" s="3">
         <v>24954000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24747000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>24628000</v>
       </c>
       <c r="H48" s="3">
         <v>24628000</v>
       </c>
       <c r="I48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="J48" s="3">
         <v>24698000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24727000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24809000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24141000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24758000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>16890000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16891000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12826000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>13226000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13727000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13755000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13806000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13961000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13943000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1564000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1560900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4919000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4920000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4927000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4937000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4938000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4939000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4983000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4999000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4995000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5025000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3064000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3037000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1403000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1559000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1585000</v>
       </c>
       <c r="T49" s="3">
         <v>1585000</v>
       </c>
       <c r="U49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="V49" s="3">
         <v>1556000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1586000</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
       <c r="X49" s="3">
         <v>0</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3451,8 +3565,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3522,79 +3639,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3886000</v>
+      </c>
+      <c r="E52" s="3">
         <v>4174000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4194000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4092000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3853000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4127000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3977000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3964000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4124000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3842000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4100000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3346000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3383000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3190000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3997000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4046000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4027000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4020000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3570000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3557000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>163600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>164700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3664,79 +3787,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>47306000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46890000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46634000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46528000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46848000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46506000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46116000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45180000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44939000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44392000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43867000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>32602000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32629000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22631000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24118000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>25122000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25396000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25308000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25072000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25807000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>4136000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4041000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3762,8 +3891,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3789,84 +3919,88 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1448000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1444000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1157000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1168000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1458000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1032000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1072000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1140000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1155000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1337000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1064000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1213000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1101000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1125000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>944000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1046000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1059000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1118000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1044000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>120000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>127400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="E58" s="3">
         <v>15000</v>
@@ -3875,268 +4009,277 @@
         <v>15000</v>
       </c>
       <c r="G58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>20000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>26000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>29000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>375000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>66000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>303000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>308000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>43000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>49000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>680000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>57000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>59000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>63000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>116000</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
-      </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>708000</v>
+      </c>
+      <c r="E59" s="3">
         <v>623000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>521000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>626000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1150000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>742000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>698000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>713000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>801000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>846000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>441000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>415000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>463000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>524000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>375000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>536000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>595000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>629000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>557000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>386000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>71100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>61000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2247000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2086000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1980000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1798000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2331000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2220000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1751000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1811000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1970000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2376000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1844000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1782000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1984000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1668000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1549000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2160000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1698000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1747000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1738000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1546000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>191100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>188400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5130000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5135000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5139000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5137000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5140000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5135000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5140000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5142000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5150000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5161000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5494000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5504000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5499000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5695000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5696000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5712000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6344000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6364000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6384000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>2800</v>
       </c>
       <c r="X61" s="3">
         <v>2800</v>
@@ -4144,79 +4287,85 @@
       <c r="Y61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>7303000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7362000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7425000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7419000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7298000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7441000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7575000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7481000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7464000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7028000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8129000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6849000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6844000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5883000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6187000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6144000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6088000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6130000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5328000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5248000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>101700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>97800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4286,8 +4435,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4357,8 +4509,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,79 +4583,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23131000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23033000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23016000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22839000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23174000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23165000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23317000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23148000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23252000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22960000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23718000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16856000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17031000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15038000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15211000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15766000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15917000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16022000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15458000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16165000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>559400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>542300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4526,8 +4687,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4597,8 +4759,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4668,8 +4833,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4739,8 +4907,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4810,79 +4981,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-6306000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6566000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7132000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>2014900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1956700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -4952,8 +5129,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5023,8 +5203,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5094,79 +5277,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>24175000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23857000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23618000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23689000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23674000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23341000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>22799000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22032000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21687000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21432000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>20149000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15746000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15598000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7593000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8907000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>9356000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9479000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9286000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9614000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9642000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3576600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3498700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5236,155 +5425,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>438000</v>
+      </c>
+      <c r="E81" s="3">
         <v>726000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>347000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>411000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>538000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>685000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>882000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>357000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>400000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1387000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2277000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>194000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>111000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-412000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-94000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>158000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-314000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1084000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>69800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>78500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5410,79 +5608,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E83" s="3">
         <v>557000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>538000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>507000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>544000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>574000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>566000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>524000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>572000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>559000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>466000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>435000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>441000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>363000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>328000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>325000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>434000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>390000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>409000</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5552,8 +5754,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5623,8 +5828,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5694,8 +5902,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5765,8 +5976,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -5836,79 +6050,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1004000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1387000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1050000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>639000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1302000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1638000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1859000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1031000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>889000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>875000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1004000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>434000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>520000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>411000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>706000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>141000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>507000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>590000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>532000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>448000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>133100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>204700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -5934,79 +6154,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-611000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-669000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-569000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-658000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-539000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-546000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-548000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-509000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-451000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-446000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-502000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-374000</v>
       </c>
       <c r="P91" s="3">
         <v>-374000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-387000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-313000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-326000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-350000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-307000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-405000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-41300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-50300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6076,8 +6300,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6147,79 +6374,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-387000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-499000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-603000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-408000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-405000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-454000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-264000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-163000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>362000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-383000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-351000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>422000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-477000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-386000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-347000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-284000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-256000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-306000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>556000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-44700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6245,58 +6478,59 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-159000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-158000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-159000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-158000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-160000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-141000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-124000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-122000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-87000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-67000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-61000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-31000</v>
       </c>
       <c r="Q96" s="3">
         <v>-31000</v>
       </c>
       <c r="R96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-31000</v>
       </c>
       <c r="T96" s="3">
         <v>-31000</v>
@@ -6305,19 +6539,22 @@
         <v>-31000</v>
       </c>
       <c r="V96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-32000</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6387,8 +6624,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6458,8 +6698,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6529,79 +6772,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-406000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-763000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-646000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-570000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-409000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-789000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-408000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-348000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-709000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-328000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-369000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-82000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-360000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-704000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-92000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-72000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-126000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-355000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-4400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -6615,50 +6864,50 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-1000</v>
       </c>
       <c r="S101" s="3">
         <v>-1000</v>
       </c>
       <c r="T101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U101" s="3">
         <v>1000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -6671,75 +6920,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>607000</v>
+      </c>
+      <c r="E102" s="3">
         <v>237000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-95000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-534000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>484000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>444000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1001000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>416000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>909000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>252000</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>582000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-126000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-388000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-299000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>150000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>209000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-901000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>649000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>84000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>155200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,327 +665,340 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2859000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2853000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>3310000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2826000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2893000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2956000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3279000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3540000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3055000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2721000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2883000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2678000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2063000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2093000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1904000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1837000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1712000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1790000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2228000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1993000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2160000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>316700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>356400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1850000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1739000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1905000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1768000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1704000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1712000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1814000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1927000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1900000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1776000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1987000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1889000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1545000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1490000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1577000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1315000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1176000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1152000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1411000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1270000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1277000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>167400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>196700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1009000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1114000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1405000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1058000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1189000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1244000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1465000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1613000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1155000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>945000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>896000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>789000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>518000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>603000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>327000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>522000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>536000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>638000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>817000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>723000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>883000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>149300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>159700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,82 +1025,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="3">
         <v>67000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>82000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>67000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>77000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>61000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>74000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>72000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>78000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>71000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>86000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>98000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>74000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>87000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>89000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>97000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>73000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>98000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>100000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>81000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>10900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>8000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,82 +1177,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E14" s="3">
         <v>19000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>57000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-77000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>64000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-80000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>81000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-311000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-514000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>44000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>451000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>495000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>67000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>28000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1029000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>117000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18000</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1331,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1333,156 +1359,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1774000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1758000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1770000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1798000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1765000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1665000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1737000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1904000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2093000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1583000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>217000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>-670000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1681000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1666000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2176000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1988000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1536000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1264000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2514000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1585000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>602000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>192200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>223900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1085000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1095000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1540000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1028000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1128000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1291000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1542000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1636000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>962000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1138000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2666000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3348000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>382000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>427000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-272000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-151000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>176000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>526000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-286000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>408000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1558000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>124500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>132500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1509,378 +1542,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-10000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>325000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-12000</v>
       </c>
       <c r="P20" s="3">
         <v>-12000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>5000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-4800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1557000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1553000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2098000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1563000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1618000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1796000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2085000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2210000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1526000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1656000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3563000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3894000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>836000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>850000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>167000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>192000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>505000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>855000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>153000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>805000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1973000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>158600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>263000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E22" s="3">
         <v>86000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>85000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>90000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>81000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>85000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>79000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>81000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>80000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>83000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>431000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>109000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>106000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>108000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>115000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>110000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>137000</v>
       </c>
       <c r="T22" s="3">
         <v>137000</v>
       </c>
       <c r="U22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="V22" s="3">
         <v>135000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>144000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>153000</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>996000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1007000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1456000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>935000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1037000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1204000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1462000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1555000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>880000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1049000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2560000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3226000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>264000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>307000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-389000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-281000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>40000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>393000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-416000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>271000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1411000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>119600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>127800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E24" s="3">
         <v>301000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>304000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>323000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>343000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>374000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>404000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>284000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>258000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>386000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>784000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>791000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>41000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>167000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>776000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>105000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>116000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>201000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>394000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>314000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>274000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>34700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>33500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1953,156 +2002,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E26" s="3">
         <v>706000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1152000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>612000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>694000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>830000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1058000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1271000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>622000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>663000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1776000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2435000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>223000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>140000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-386000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-76000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>192000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-810000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-43000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1137000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>84900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>94300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E27" s="3">
         <v>438000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>726000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>347000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>411000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>538000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>685000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>882000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>357000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>400000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1387000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2277000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>194000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>111000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-412000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-94000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>158000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-657000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-11000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1084000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>69800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>78500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2175,8 +2233,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2213,8 +2274,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>91</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>91</v>
@@ -2231,17 +2292,17 @@
       <c r="T29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="V29" s="3">
         <v>343000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2249,8 +2310,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2323,8 +2387,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,156 +2464,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>10000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-325000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>13000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>12000</v>
       </c>
       <c r="P32" s="3">
         <v>12000</v>
       </c>
       <c r="Q32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-5000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>4800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E33" s="3">
         <v>438000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>726000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>347000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>411000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>538000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>685000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>882000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>357000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>400000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1387000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2277000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>194000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>111000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-412000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-94000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>158000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-314000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1084000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>69800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>78500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2619,161 +2695,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E35" s="3">
         <v>438000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>726000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>347000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>411000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>538000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>685000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>882000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>357000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>400000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1387000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2277000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>194000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>111000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-412000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-94000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>158000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-314000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1084000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>69800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>78500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2800,8 +2885,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2828,82 +2914,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5780000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5887000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5280000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5043000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5138000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5672000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5188000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4744000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3743000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3327000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3314000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>2153000</v>
       </c>
       <c r="P41" s="3">
         <v>2153000</v>
       </c>
       <c r="Q41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="R41" s="3">
         <v>1571000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1697000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2085000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2384000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2234000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2025000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2926000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>600300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>516300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -2976,452 +3066,473 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>577000</v>
+      </c>
+      <c r="E43" s="3">
         <v>640000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>623000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>554000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>530000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>558000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>509000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>407000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>371000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>363000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>311000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>427000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>383000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>248000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>189000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>194000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>173000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>239000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>224000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>190000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>236800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>231400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1699000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1766000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1734000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1821000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1825000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1776000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1878000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2111000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2160000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2159000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2289000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2265000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1930000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1966000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1852000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1898000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1940000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1887000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1890000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2038000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1901000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>124600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>119000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>754000</v>
+      </c>
+      <c r="E45" s="3">
         <v>722000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>612000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>547000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>522000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>806000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>519000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>495000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>609000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>594000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>921000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>529000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>333000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>372000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>307000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>319000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>356000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>352000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>321000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>455000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>486000</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8810000</v>
+      </c>
+      <c r="E46" s="3">
         <v>9015000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8249000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8011000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8039000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8784000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8143000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7859000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6919000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6451000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6887000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5510000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4843000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4874000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3978000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4103000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4575000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4796000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4684000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4742000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5503000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>961600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>866800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4113000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4334000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4594000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4762000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4715000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4646000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4670000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4643000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4587000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4556000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4527000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4474000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4459000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4444000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1234000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1233000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1214000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1233000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1213000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1243000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1218000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1446800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1448600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>25202000</v>
+      </c>
+      <c r="E48" s="3">
         <v>25153000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>24954000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24747000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>24628000</v>
       </c>
       <c r="I48" s="3">
         <v>24628000</v>
       </c>
       <c r="J48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="K48" s="3">
         <v>24698000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24727000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24809000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24141000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24758000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16890000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16891000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12826000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>13226000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13727000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13755000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13806000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13961000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13943000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1564000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1560900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3429,73 +3540,76 @@
         <v>4918000</v>
       </c>
       <c r="E49" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="F49" s="3">
         <v>4919000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4920000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4927000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4937000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4938000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4939000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4983000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4999000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4995000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5025000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3064000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3037000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1403000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1559000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1585000</v>
       </c>
       <c r="U49" s="3">
         <v>1585000</v>
       </c>
       <c r="V49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="W49" s="3">
         <v>1556000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1586000</v>
       </c>
-      <c r="X49" s="3">
-        <v>0</v>
-      </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3568,8 +3682,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3642,82 +3759,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3799000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3886000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>4174000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4194000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4092000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3853000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4127000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3977000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3964000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4124000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3842000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4100000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3346000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3383000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3190000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3997000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4046000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4027000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4020000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3570000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3557000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>163600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>164700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3790,82 +3913,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46842000</v>
+      </c>
+      <c r="E54" s="3">
         <v>47306000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46890000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46634000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46528000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46848000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46506000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46116000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45180000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44939000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44392000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43867000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32602000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32629000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22631000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>24118000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>25122000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25396000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25308000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25072000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25807000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4136000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4041000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3892,8 +4021,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -3920,90 +4050,94 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1537000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1525000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1448000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1444000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1157000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1168000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1458000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1032000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1072000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1140000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1155000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1337000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1064000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1213000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1101000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1125000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>944000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1046000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1059000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1118000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1044000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>120000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>127400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
         <v>14000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>15000</v>
       </c>
       <c r="F58" s="3">
         <v>15000</v>
@@ -4012,277 +4146,286 @@
         <v>15000</v>
       </c>
       <c r="H58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>20000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>26000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>29000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>375000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>66000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>303000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>308000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>43000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>49000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>680000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>57000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>59000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>63000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>116000</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
         <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>680000</v>
+      </c>
+      <c r="E59" s="3">
         <v>708000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>623000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>521000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>626000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1150000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>742000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>698000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>713000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>801000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>846000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>441000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>415000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>463000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>524000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>375000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>536000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>595000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>629000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>557000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>386000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>71100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>61000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2230000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2247000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2086000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1980000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1798000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2331000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2220000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1751000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1811000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1970000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2376000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1844000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1782000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1984000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1668000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1549000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2160000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1698000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1747000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1738000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1546000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>191100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>188400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5131000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5130000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5135000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5139000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5137000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5140000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5135000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5140000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5142000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5150000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5161000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5494000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5504000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5499000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5695000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5696000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5712000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6344000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6364000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6384000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>2800</v>
       </c>
       <c r="Y61" s="3">
         <v>2800</v>
@@ -4290,82 +4433,88 @@
       <c r="Z61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6947000</v>
+      </c>
+      <c r="E62" s="3">
         <v>7303000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7362000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7425000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7419000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7298000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7441000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7575000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7481000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7464000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7028000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8129000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6849000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6844000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5883000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6187000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6144000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6088000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6130000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5328000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5248000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>101700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>97800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4438,8 +4587,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4512,8 +4664,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4586,82 +4741,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>22731000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23131000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23033000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23016000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22839000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23174000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23165000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23317000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23148000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23252000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22960000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23718000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16856000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17031000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15038000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15211000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15766000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15917000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16022000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15458000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16165000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>559400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>542300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4688,8 +4849,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4762,8 +4924,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -4836,8 +5001,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -4910,8 +5078,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -4984,82 +5155,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-6173000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6306000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6566000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7132000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>2014900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1956700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5132,8 +5309,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5206,8 +5386,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5280,82 +5463,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>24111000</v>
+      </c>
+      <c r="E76" s="3">
         <v>24175000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23857000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23618000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23689000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23674000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23341000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>22799000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22032000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21687000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21432000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>20149000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15746000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15598000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7593000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8907000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9356000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9479000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9286000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9614000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9642000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3576600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3498700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5428,161 +5617,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>488000</v>
+      </c>
+      <c r="E81" s="3">
         <v>438000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>726000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>347000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>411000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>538000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>685000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>882000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>357000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>400000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1387000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2277000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>194000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>111000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-412000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-94000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>158000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-314000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1084000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>69800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>78500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5609,82 +5807,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>476000</v>
+      </c>
+      <c r="E83" s="3">
         <v>460000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>557000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>538000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>500000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>507000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>544000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>574000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>566000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>524000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>572000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>559000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>466000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>435000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>441000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>363000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>328000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>325000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>434000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>390000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>409000</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5757,8 +5959,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -5831,8 +6036,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -5905,8 +6113,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -5979,8 +6190,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6053,82 +6267,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>924000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1004000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1387000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1050000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>639000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1302000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1638000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1859000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1031000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>889000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>875000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1004000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>434000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>520000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>411000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>706000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>141000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>507000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>590000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>532000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>448000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>133100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>204700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6155,82 +6375,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-755000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-611000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-669000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-569000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-658000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-539000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-546000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-548000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-509000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-451000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-446000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-502000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-374000</v>
       </c>
       <c r="Q91" s="3">
         <v>-374000</v>
       </c>
       <c r="R91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-387000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-313000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-326000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-350000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-307000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-405000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-41300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-50300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6303,8 +6527,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6377,82 +6604,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="E94" s="3">
         <v>9000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-387000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-499000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-603000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-408000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-405000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-454000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-264000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-163000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>362000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-383000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-351000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>422000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-477000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-386000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-347000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-284000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-256000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-306000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>556000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-44700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-48000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6479,61 +6712,62 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-353000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-178000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-159000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-158000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-159000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-158000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-160000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-141000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-124000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-122000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-87000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-67000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-61000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-31000</v>
       </c>
       <c r="R96" s="3">
         <v>-31000</v>
       </c>
       <c r="S96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-31000</v>
       </c>
       <c r="U96" s="3">
         <v>-31000</v>
@@ -6542,19 +6776,22 @@
         <v>-31000</v>
       </c>
       <c r="W96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-32000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6627,8 +6864,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6701,8 +6941,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -6775,87 +7018,93 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-727000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-406000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-763000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-646000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-570000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-409000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-789000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-408000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-348000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-709000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-328000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-369000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-82000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-360000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-57000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-704000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-92000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-72000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-126000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-355000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6867,50 +7116,50 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-1000</v>
       </c>
       <c r="T101" s="3">
         <v>-1000</v>
       </c>
       <c r="U101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V101" s="3">
         <v>1000</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -6923,78 +7172,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="E102" s="3">
         <v>607000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>237000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-95000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-534000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>484000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>444000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1001000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>416000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>909000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>252000</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>582000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-126000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-388000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-299000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>150000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>209000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-901000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>649000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>84000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>155200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,340 +665,353 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2527000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2859000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2853000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>3310000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2826000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2893000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2956000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3279000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3540000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3055000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2721000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2883000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2678000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2063000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2093000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1904000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1837000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1712000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1790000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2228000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1993000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2160000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>316700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>356400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1815000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1850000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1739000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1905000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1768000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1704000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1712000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1814000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1927000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1900000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1776000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1987000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1889000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1545000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1490000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1577000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1315000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1176000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1152000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1411000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1270000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1277000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>167400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>196700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>712000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1009000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1114000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1405000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1058000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1189000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1244000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1465000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1613000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1155000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>945000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>896000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>789000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>518000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>603000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>327000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>522000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>536000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>638000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>817000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>723000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>883000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>149300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>159700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1026,85 +1039,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>77000</v>
+      </c>
+      <c r="E12" s="3">
         <v>100000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>67000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>82000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>67000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>77000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>61000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>74000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>72000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>78000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>71000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>40000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>86000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>98000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>74000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>87000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>89000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>97000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>73000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>98000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>100000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>81000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>10900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>8000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1180,85 +1197,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E14" s="3">
         <v>17000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>57000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-77000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>64000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-80000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>81000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-311000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-514000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>44000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>451000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>495000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>67000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>28000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1029000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>117000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18000</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1357,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1360,162 +1386,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1774000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1758000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1770000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1798000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1765000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1665000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1737000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1904000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2093000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1583000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>217000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-670000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1681000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1666000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2176000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1988000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1536000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1264000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2514000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1585000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>602000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>192200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>223900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>700000</v>
+      </c>
+      <c r="E18" s="3">
         <v>1085000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1095000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1540000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1028000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1128000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1291000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1542000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1636000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>962000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1138000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2666000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3348000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>382000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>427000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-272000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-151000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>176000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>526000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-286000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>408000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1558000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>124500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>132500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1543,393 +1576,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-10000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>325000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-12000</v>
       </c>
       <c r="Q20" s="3">
         <v>-12000</v>
       </c>
       <c r="R20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>5000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>6000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1169000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1557000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1553000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2098000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1563000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1618000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1796000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2085000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2210000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1526000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1656000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3563000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3894000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>836000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>850000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>167000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>192000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>505000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>855000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>153000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>805000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1973000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>158600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>263000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E22" s="3">
         <v>85000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>86000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>85000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>90000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>81000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>85000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>79000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>81000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>80000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>83000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>431000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>109000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>106000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>108000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>115000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>110000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>137000</v>
       </c>
       <c r="U22" s="3">
         <v>137000</v>
       </c>
       <c r="V22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="W22" s="3">
         <v>135000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>144000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>153000</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
       <c r="Z22" s="3">
         <v>0</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E23" s="3">
         <v>996000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1007000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1456000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>935000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1037000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1204000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1462000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1555000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>880000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1049000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2560000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3226000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>264000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>307000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-389000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-281000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>40000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>393000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-416000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>271000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1411000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>119600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>127800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E24" s="3">
         <v>279000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>301000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>304000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>323000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>343000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>374000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>404000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>284000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>258000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>386000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>784000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>791000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>41000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>167000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>776000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>105000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>116000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>201000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>394000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>314000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>274000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>34700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>33500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2005,162 +2054,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E26" s="3">
         <v>717000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>706000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1152000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>612000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>694000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>830000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1058000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1271000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>622000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>663000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1776000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2435000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>223000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>140000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-386000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-76000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>192000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-810000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-43000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1137000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>84900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>94300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E27" s="3">
         <v>488000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>438000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>726000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>347000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>411000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>538000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>685000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>882000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>357000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1387000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2277000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>194000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>111000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-412000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-94000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>158000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-657000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-11000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1084000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>69800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>78500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2236,8 +2294,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2277,8 +2338,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>91</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>91</v>
@@ -2295,17 +2356,17 @@
       <c r="U29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W29" s="3">
         <v>343000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2313,8 +2374,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2390,8 +2454,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2467,162 +2534,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
         <v>4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>10000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-325000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>13000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>12000</v>
       </c>
       <c r="Q32" s="3">
         <v>12000</v>
       </c>
       <c r="R32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-5000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E33" s="3">
         <v>488000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>438000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>726000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>347000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>411000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>538000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>685000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>882000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>357000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1387000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2277000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>194000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>111000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-412000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-94000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>158000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-314000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1084000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>69800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>78500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2698,167 +2774,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E35" s="3">
         <v>488000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>438000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>726000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>347000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>411000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>538000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>685000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>882000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>357000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1387000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2277000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>194000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>111000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-412000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-94000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>158000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-314000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1084000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>69800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>78500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2886,8 +2971,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2915,85 +3001,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>5240000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5780000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5887000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5280000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5043000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5138000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5672000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5188000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4744000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3743000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3327000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3314000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="P41" s="3">
-        <v>2153000</v>
       </c>
       <c r="Q41" s="3">
         <v>2153000</v>
       </c>
       <c r="R41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="S41" s="3">
         <v>1571000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1697000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2085000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2384000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2234000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2025000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2926000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>600300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>516300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3069,470 +3159,491 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>499000</v>
+      </c>
+      <c r="E43" s="3">
         <v>577000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>640000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>623000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>600000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>554000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>530000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>558000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>509000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>407000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>371000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>363000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>311000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>427000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>383000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>248000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>189000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>194000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>173000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>239000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>224000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>190000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>236800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>231400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1691000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1699000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1766000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1734000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1821000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1825000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1776000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1878000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2111000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2160000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2159000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2289000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2265000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1930000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1966000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1852000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1898000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1940000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1887000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1890000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2038000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1901000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>124600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>119000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>786000</v>
+      </c>
+      <c r="E45" s="3">
         <v>754000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>722000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>612000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>547000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>522000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>806000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>519000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>495000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>609000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>594000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>921000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>529000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>333000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>372000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>307000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>319000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>356000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>352000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>321000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>455000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>486000</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
       <c r="Z45" s="3">
         <v>0</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8216000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8810000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9015000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8249000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8011000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8039000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8784000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8143000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7859000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6919000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6451000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6887000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5510000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4843000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4874000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3978000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4103000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4575000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4796000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4684000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4742000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5503000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>961600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>866800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4064000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4113000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4334000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4594000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4762000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4715000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4646000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4670000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4643000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4587000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4556000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4527000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4474000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4459000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4444000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1234000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1233000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1214000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1233000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1213000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1243000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1218000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1446800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1448600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>25329000</v>
+      </c>
+      <c r="E48" s="3">
         <v>25202000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25153000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>24954000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24747000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>24628000</v>
       </c>
       <c r="J48" s="3">
         <v>24628000</v>
       </c>
       <c r="K48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="L48" s="3">
         <v>24698000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24727000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24809000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24141000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24758000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16890000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16891000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12826000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>13226000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13727000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13755000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13806000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13961000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13943000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1564000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1560900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3543,73 +3654,76 @@
         <v>4918000</v>
       </c>
       <c r="F49" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="G49" s="3">
         <v>4919000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4920000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4927000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4937000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4938000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4939000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4983000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4999000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4995000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5025000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3064000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3037000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1403000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1559000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="U49" s="3">
-        <v>1585000</v>
       </c>
       <c r="V49" s="3">
         <v>1585000</v>
       </c>
       <c r="W49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="X49" s="3">
         <v>1556000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1586000</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
       <c r="Z49" s="3">
         <v>0</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3685,8 +3799,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3762,85 +3879,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3915000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3799000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3886000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>4174000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4194000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4092000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3853000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4127000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3977000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3964000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4124000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3842000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4100000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3346000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3383000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3190000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3997000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>4046000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4027000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4020000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3570000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3557000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>163600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>164700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -3916,85 +4039,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46442000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46842000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>47306000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46890000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46634000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46528000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46848000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46506000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46116000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45180000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>44939000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44392000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43867000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32602000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32629000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22631000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>24118000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>25122000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25396000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25308000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25072000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25807000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4136000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4041000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4022,8 +4151,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4051,96 +4181,100 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1571000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1537000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1525000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1448000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1444000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1157000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1168000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1458000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1032000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1072000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1140000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1155000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1337000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1064000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1213000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1101000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1125000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>944000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1046000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1059000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1118000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1044000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>120000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>127400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>15000</v>
       </c>
       <c r="G58" s="3">
         <v>15000</v>
@@ -4149,286 +4283,295 @@
         <v>15000</v>
       </c>
       <c r="I58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J58" s="3">
         <v>13000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>20000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>26000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>29000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>375000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>66000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>303000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>308000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>43000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>49000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>680000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>57000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>59000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>63000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>116000</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
         <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>605000</v>
+      </c>
+      <c r="E59" s="3">
         <v>680000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>708000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>623000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>521000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>626000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1150000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>742000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>698000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>713000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>801000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>846000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>441000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>415000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>463000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>524000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>375000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>536000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>595000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>629000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>557000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>386000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>71100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>61000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2188000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2230000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2247000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2086000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1980000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1798000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2331000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2220000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1751000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1811000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1970000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2376000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1844000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1782000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1984000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1668000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1549000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2160000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1698000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1747000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1738000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1546000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>191100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>188400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>5083000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5131000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5130000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5135000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5139000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5137000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5140000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5135000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5140000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5142000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5150000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5161000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5494000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5504000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5499000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5695000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5696000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5712000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6344000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6364000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6384000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>2800</v>
       </c>
       <c r="Z61" s="3">
         <v>2800</v>
@@ -4436,85 +4579,91 @@
       <c r="AA61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6864000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6947000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7303000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7362000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7425000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7419000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7298000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7441000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7575000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7481000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7464000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7028000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8129000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6849000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6844000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5883000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6187000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6144000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6088000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6130000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5328000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5248000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>101700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>97800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4590,8 +4739,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4667,8 +4819,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4744,85 +4899,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>22578000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22731000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23131000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23033000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23016000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22839000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23174000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23165000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23317000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23148000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23252000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22960000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23718000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16856000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17031000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15038000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15211000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15766000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15917000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16022000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15458000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16165000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>559400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>542300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -4850,8 +5011,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -4927,8 +5089,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5004,8 +5169,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5081,8 +5249,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5158,85 +5329,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-6284000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6173000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6306000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6566000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7132000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>2014900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1956700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5312,8 +5489,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5389,8 +5569,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5466,85 +5649,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>23864000</v>
+      </c>
+      <c r="E76" s="3">
         <v>24111000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24175000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23857000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23618000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23689000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23674000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23341000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>22799000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22032000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21687000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21432000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20149000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15746000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15598000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7593000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8907000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9356000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9479000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9286000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9614000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9642000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3576600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3498700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5620,167 +5809,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E81" s="3">
         <v>488000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>438000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>726000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>347000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>411000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>538000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>685000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>882000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>357000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1387000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2277000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>194000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>111000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-412000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-94000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>158000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-314000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1084000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>69800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>78500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -5808,85 +6006,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>457000</v>
+      </c>
+      <c r="E83" s="3">
         <v>476000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>460000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>557000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>538000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>500000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>507000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>544000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>574000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>566000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>524000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>572000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>559000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>466000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>435000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>441000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>363000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>328000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>325000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>434000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>390000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>409000</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
       <c r="Z83" s="3">
         <v>0</v>
       </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -5962,8 +6164,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6039,8 +6244,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6116,8 +6324,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6193,8 +6404,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6270,85 +6484,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>758000</v>
+      </c>
+      <c r="E89" s="3">
         <v>924000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1004000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1387000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1050000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>639000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1302000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1638000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1859000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1031000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>889000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>875000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1004000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>434000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>520000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>411000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>706000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>141000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>507000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>590000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>532000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>448000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>133100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>204700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6376,85 +6596,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-792000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-755000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-611000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-669000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-569000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-658000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-539000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-546000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-548000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-509000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-451000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-446000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-502000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-374000</v>
       </c>
       <c r="R91" s="3">
         <v>-374000</v>
       </c>
       <c r="S91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-387000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-313000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-326000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-350000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-307000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-405000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-41300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-50300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6530,8 +6754,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6607,85 +6834,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-639000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-301000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>9000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-387000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-499000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-603000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-408000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-405000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-454000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-264000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-163000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>362000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-383000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-351000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>422000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-477000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-386000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-347000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-284000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-256000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-306000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>556000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-44700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-48000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6713,64 +6946,65 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-351000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-353000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-178000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-159000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-158000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-159000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-158000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-160000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-141000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-124000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-122000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-87000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-67000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-31000</v>
       </c>
       <c r="S96" s="3">
         <v>-31000</v>
       </c>
       <c r="T96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-31000</v>
       </c>
       <c r="V96" s="3">
         <v>-31000</v>
@@ -6779,19 +7013,22 @@
         <v>-31000</v>
       </c>
       <c r="X96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -6867,8 +7104,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -6944,8 +7184,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7021,85 +7264,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-656000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-727000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-406000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-763000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-646000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-570000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-409000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-789000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-408000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-348000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-709000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-328000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-369000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-82000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-360000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-57000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-704000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-92000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-72000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-126000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-355000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-4400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -7107,7 +7356,7 @@
         <v>-3000</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -7119,50 +7368,50 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-1000</v>
       </c>
       <c r="U101" s="3">
         <v>-1000</v>
       </c>
       <c r="V101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W101" s="3">
         <v>1000</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7175,81 +7424,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-540000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-107000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>607000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>237000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-95000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-534000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>484000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>444000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1001000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>416000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>909000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>252000</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>582000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-126000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-388000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-299000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>150000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>209000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-901000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>649000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>84000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>155200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2774000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2527000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2859000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2853000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3310000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2826000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2893000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2956000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3279000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3540000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3055000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2721000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2883000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2678000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2063000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2093000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1904000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1837000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1712000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1790000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2228000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1993000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2160000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>316700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>356400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2093000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1815000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1850000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1739000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1905000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1768000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1704000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1712000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1814000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1927000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1900000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1776000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1987000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1889000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1545000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1490000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1577000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1315000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1176000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1152000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1411000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1270000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1277000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>167400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>196700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E10" s="3">
         <v>712000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1009000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1114000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1405000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1058000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1189000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1244000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1465000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1613000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1155000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>945000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>896000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>789000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>518000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>603000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>327000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>522000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>536000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>638000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>817000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>723000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>883000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>149300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>159700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,88 +1052,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E12" s="3">
         <v>77000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>100000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>67000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>82000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>67000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>77000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>61000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>74000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>72000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>78000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>71000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>40000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>86000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>98000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>74000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>87000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>89000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>97000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>73000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>98000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>100000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>81000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>10900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>8000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1200,88 +1216,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1652000</v>
+      </c>
+      <c r="E14" s="3">
         <v>60000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>57000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-77000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>64000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-80000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>81000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-311000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-514000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>27000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>44000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>451000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>495000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>67000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>28000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1029000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>117000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18000</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1360,8 +1382,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1387,168 +1412,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3658000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1827000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1774000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1758000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1770000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1798000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1765000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1665000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1737000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1904000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2093000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1583000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>217000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>-670000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1681000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1666000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2176000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1988000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1536000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1264000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2514000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1585000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>602000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>192200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>223900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-884000</v>
+      </c>
+      <c r="E18" s="3">
         <v>700000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1085000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1095000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1540000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1028000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1128000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1291000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1542000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1636000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>962000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1138000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2666000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3348000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>382000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>427000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-272000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-151000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>176000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>526000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-286000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>408000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1558000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>124500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>132500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1577,408 +1609,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-4000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-10000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>325000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-12000</v>
       </c>
       <c r="R20" s="3">
         <v>-12000</v>
       </c>
       <c r="S20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>5000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>7000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>6000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-259000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1169000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1557000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1553000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2098000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1563000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1618000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1796000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2085000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2210000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1526000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1656000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3563000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3894000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>836000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>850000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>167000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>192000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>505000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>855000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>153000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>805000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1973000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>158600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>263000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E22" s="3">
         <v>87000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>85000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>86000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>85000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>90000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>81000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>85000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>79000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>81000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>80000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>83000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>431000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>109000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>106000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>108000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>115000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>110000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>137000</v>
       </c>
       <c r="V22" s="3">
         <v>137000</v>
       </c>
       <c r="W22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="X22" s="3">
         <v>135000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>144000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>153000</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-947000</v>
+      </c>
+      <c r="E23" s="3">
         <v>625000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>996000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1007000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1456000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>935000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1037000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1204000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1462000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1555000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>880000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1049000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2560000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3226000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>264000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>307000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-389000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-281000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>40000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>393000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-416000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>271000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1411000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>119600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>127800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-131000</v>
+      </c>
+      <c r="E24" s="3">
         <v>215000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>279000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>301000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>304000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>323000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>343000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>374000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>404000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>284000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>258000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>386000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>784000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>791000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>41000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>167000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>776000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>105000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>116000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>201000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>394000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>314000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>274000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>34700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>33500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2057,168 +2105,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-816000</v>
+      </c>
+      <c r="E26" s="3">
         <v>410000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>717000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>706000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1152000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>612000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>694000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>830000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1058000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1271000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>622000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>663000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1776000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2435000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>223000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>140000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-386000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-76000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>192000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-810000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-43000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1137000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>84900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>94300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-735000</v>
+      </c>
+      <c r="E27" s="3">
         <v>241000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>488000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>438000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>726000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>347000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>411000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>538000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>685000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>882000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>357000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1387000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2277000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>194000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>111000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-412000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-94000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>158000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-657000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1084000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>69800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>78500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2297,8 +2354,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2341,8 +2401,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>91</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>91</v>
@@ -2359,17 +2419,17 @@
       <c r="V29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="X29" s="3">
         <v>343000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
@@ -2377,8 +2437,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2457,8 +2520,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2537,168 +2603,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>4000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>10000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-325000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>13000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>12000</v>
       </c>
       <c r="R32" s="3">
         <v>12000</v>
       </c>
       <c r="S32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-5000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>4700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>-735000</v>
+      </c>
+      <c r="E33" s="3">
         <v>241000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>488000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>438000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>726000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>347000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>411000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>538000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>685000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>882000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>357000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1387000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2277000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>194000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>111000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-412000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-94000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>158000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-314000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1084000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>69800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>78500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2777,173 +2852,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>-735000</v>
+      </c>
+      <c r="E35" s="3">
         <v>241000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>488000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>438000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>726000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>347000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>411000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>538000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>685000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>882000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>357000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1387000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2277000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>194000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>111000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-412000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-94000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>158000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-314000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1084000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>69800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>78500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2972,8 +3056,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3002,88 +3087,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4440000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5240000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5780000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5887000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5280000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5043000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5138000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5672000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5188000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4744000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3743000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3327000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3314000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>2153000</v>
       </c>
       <c r="R41" s="3">
         <v>2153000</v>
       </c>
       <c r="S41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="T41" s="3">
         <v>1571000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1697000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2085000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2384000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2234000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2025000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2926000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>600300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>516300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3162,493 +3251,514 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>554000</v>
+      </c>
+      <c r="E43" s="3">
         <v>499000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>577000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>640000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>623000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>554000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>530000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>558000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>509000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>407000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>371000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>363000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>311000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>427000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>383000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>248000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>189000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>194000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>173000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>239000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>224000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>190000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>236800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>231400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1781000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1691000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1699000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1766000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1734000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1821000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1825000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1776000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1878000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2111000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2160000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2159000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2289000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2265000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1930000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1966000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1852000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1898000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1940000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1887000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1890000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>2038000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1901000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>124600</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>119000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1690000</v>
+      </c>
+      <c r="E45" s="3">
         <v>786000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>754000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>722000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>612000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>547000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>522000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>806000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>519000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>495000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>609000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>594000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>921000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>529000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>333000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>372000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>307000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>319000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>356000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>352000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>321000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>455000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>486000</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8465000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8216000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8810000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9015000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8249000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8011000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8039000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8784000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8143000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7859000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6919000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6451000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6887000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5510000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4843000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4874000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3978000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4103000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4575000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4796000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4684000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4742000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5503000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>961600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>866800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>3983000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4064000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4113000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4334000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4594000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4762000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4715000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4646000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4670000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4643000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4587000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4556000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4527000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4474000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4459000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4444000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1234000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1233000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1214000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1233000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1213000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1243000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1218000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1446800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1448600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>25821000</v>
+      </c>
+      <c r="E48" s="3">
         <v>25329000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25202000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25153000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>24954000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24747000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>24628000</v>
       </c>
       <c r="K48" s="3">
         <v>24628000</v>
       </c>
       <c r="L48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="M48" s="3">
         <v>24698000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24727000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24809000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24141000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24758000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16890000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16891000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>12826000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>13226000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13727000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13755000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13806000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13961000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13943000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1564000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1560900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>4918000</v>
+        <v>3730000</v>
       </c>
       <c r="E49" s="3">
         <v>4918000</v>
@@ -3657,73 +3767,76 @@
         <v>4918000</v>
       </c>
       <c r="G49" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="H49" s="3">
         <v>4919000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4920000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4927000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4937000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4938000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4939000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4983000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4999000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4995000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5025000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3064000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3037000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1403000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1559000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1585000</v>
       </c>
       <c r="W49" s="3">
         <v>1585000</v>
       </c>
       <c r="X49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="Y49" s="3">
         <v>1556000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1586000</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
-      </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3802,8 +3915,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -3882,88 +3998,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3966000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3915000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3799000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3886000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4174000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4194000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4092000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>3853000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4127000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3977000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3964000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4124000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3842000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4100000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3346000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3383000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3190000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3997000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>4046000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4027000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4020000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3570000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3557000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>163600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>164700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4042,88 +4164,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>45965000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46442000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46842000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>47306000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46890000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46634000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46528000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46848000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46506000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46116000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>45180000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>44939000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44392000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>43867000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32602000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32629000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22631000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>24118000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>25122000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25396000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25308000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25072000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25807000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>4136000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4041000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4152,8 +4280,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4182,102 +4311,106 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1556000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1571000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1537000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1525000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1448000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1444000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1157000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1168000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1458000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1032000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1072000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1140000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1155000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1337000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1064000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1213000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1101000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1125000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>944000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1046000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1059000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1118000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1044000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>120000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>127400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>15000</v>
       </c>
       <c r="H58" s="3">
         <v>15000</v>
@@ -4286,295 +4419,304 @@
         <v>15000</v>
       </c>
       <c r="J58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K58" s="3">
         <v>13000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>20000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>26000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>29000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>375000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>66000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>303000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>308000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>43000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>49000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>680000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>57000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>59000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>63000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>116000</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1551000</v>
+      </c>
+      <c r="E59" s="3">
         <v>605000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>680000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>708000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>623000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>521000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>626000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1150000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>742000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>698000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>713000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>801000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>846000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>441000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>415000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>463000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>524000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>375000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>536000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>595000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>629000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>557000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>386000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>71100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>61000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3120000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2188000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2230000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2247000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2086000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1980000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1798000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2331000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2220000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1751000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1811000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1970000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2376000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1844000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1782000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1984000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1668000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1549000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2160000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1698000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1747000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1738000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1546000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>191100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>188400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>4826000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5083000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5131000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5130000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5135000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5139000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5137000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5140000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5135000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5140000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5142000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5150000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5161000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5494000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5504000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5499000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5695000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5696000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5712000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6344000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6364000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6384000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>2800</v>
       </c>
       <c r="AA61" s="3">
         <v>2800</v>
@@ -4582,88 +4724,94 @@
       <c r="AB61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6730000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6864000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6947000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7303000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7362000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7425000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7419000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7298000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7441000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7575000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7481000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7464000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7028000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8129000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6849000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6844000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5883000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6187000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6144000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6088000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6130000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>5328000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5248000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>101700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>97800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4742,8 +4890,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4822,8 +4973,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,88 +5056,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23194000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22578000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22731000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23131000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23033000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23016000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>22839000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23174000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23165000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23317000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23148000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23252000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22960000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23718000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16856000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17031000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15038000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15211000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15766000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15917000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16022000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15458000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16165000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>559400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>542300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5012,8 +5172,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5092,8 +5253,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5172,8 +5336,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5252,8 +5419,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5332,88 +5502,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7282000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6284000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6173000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6306000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6566000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7132000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>2014900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1956700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5492,8 +5668,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5572,8 +5751,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5652,88 +5834,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>22771000</v>
+      </c>
+      <c r="E76" s="3">
         <v>23864000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>24111000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24175000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23857000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23618000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23689000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23674000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23341000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22799000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22032000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21687000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21432000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>20149000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15746000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15598000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7593000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8907000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9356000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9479000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9286000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9614000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9642000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>3576600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3498700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -5812,173 +6000,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>-735000</v>
+      </c>
+      <c r="E81" s="3">
         <v>241000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>488000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>438000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>726000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>347000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>411000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>538000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>685000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>882000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>357000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1387000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2277000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>194000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>111000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-412000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-94000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>158000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-314000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1084000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>69800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>78500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6007,88 +6204,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E83" s="3">
         <v>457000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>476000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>460000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>557000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>538000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>507000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>544000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>574000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>566000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>524000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>572000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>559000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>466000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>435000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>441000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>363000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>328000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>325000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>434000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>390000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>409000</v>
       </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6167,8 +6368,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6247,8 +6451,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6327,8 +6534,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6407,8 +6617,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6487,88 +6700,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>795000</v>
+      </c>
+      <c r="E89" s="3">
         <v>758000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>924000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1004000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1387000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1050000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>639000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1302000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1638000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1859000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1031000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>889000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>875000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1004000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>434000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>520000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>411000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>706000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>141000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>507000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>590000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>532000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>448000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>133100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>204700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6597,88 +6816,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-891000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-792000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-755000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-611000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-669000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-569000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-658000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-539000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-546000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-548000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-509000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-451000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-446000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-502000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-374000</v>
       </c>
       <c r="S91" s="3">
         <v>-374000</v>
       </c>
       <c r="T91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-387000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-313000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-326000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-350000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-307000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-405000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-41300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-50300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6757,8 +6980,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -6837,88 +7063,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-780000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-639000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-301000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>9000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-387000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-499000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-603000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-408000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-405000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-454000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-264000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-163000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>362000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-383000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-351000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>422000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-477000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-386000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-347000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-284000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-256000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-306000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>556000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-44700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-48000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -6947,67 +7179,68 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-261000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-351000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-353000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-178000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-159000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-158000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-159000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-158000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-160000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-141000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-124000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-122000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-87000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-61000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-31000</v>
       </c>
       <c r="T96" s="3">
         <v>-31000</v>
       </c>
       <c r="U96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-31000</v>
       </c>
       <c r="W96" s="3">
         <v>-31000</v>
@@ -7016,19 +7249,22 @@
         <v>-31000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7107,8 +7343,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7187,8 +7426,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7267,99 +7509,105 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-815000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-656000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-727000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-406000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-763000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-646000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-570000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-409000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-789000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-408000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-348000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-709000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-328000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-369000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-82000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-360000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-57000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-704000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-92000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-72000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-126000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-355000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-4400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
         <v>-3000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -7371,50 +7619,50 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-1000</v>
       </c>
       <c r="V101" s="3">
         <v>-1000</v>
       </c>
       <c r="W101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="X101" s="3">
         <v>1000</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
@@ -7427,84 +7675,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-800000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-540000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-107000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>607000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>237000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-95000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-534000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>484000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>444000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1001000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>416000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>909000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>252000</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>582000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-126000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-388000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-299000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>150000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>209000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-901000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>649000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>84000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>155200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,378 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2643000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2774000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2527000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2859000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2853000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3310000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2826000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2893000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2956000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3279000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3540000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3055000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2721000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2883000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2678000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2063000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2093000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1904000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1837000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1712000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1790000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2228000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1993000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2160000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>316700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>356400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1941000</v>
+      </c>
+      <c r="E9" s="3">
         <v>2093000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1815000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1850000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1739000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1905000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1768000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1704000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1712000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1814000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1927000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1900000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1776000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1987000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1889000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1545000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1490000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1577000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1315000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1176000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1152000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1411000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1270000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1277000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>167400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>196700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E10" s="3">
         <v>681000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>712000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1009000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1114000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1405000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1058000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1189000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1244000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1465000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1613000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1155000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>945000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>896000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>789000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>518000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>603000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>327000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>522000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>536000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>638000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>817000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>723000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>883000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>149300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>159700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,91 +1066,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E12" s="3">
         <v>106000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>77000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>67000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>82000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>67000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>77000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>61000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>74000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>72000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>78000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>71000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>40000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>86000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>98000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>74000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>87000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>89000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>97000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>73000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>98000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>100000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>81000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>10900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>8000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1219,91 +1236,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1652000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>60000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>57000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-77000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>64000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-80000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>81000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-311000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-514000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>27000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>44000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>451000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>495000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>67000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>28000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1029000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>117000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>18000</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
         <v>0</v>
       </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1385,8 +1408,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1413,174 +1439,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2111000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3658000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1827000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1774000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1758000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1770000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1798000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1765000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1665000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1737000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1904000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2093000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1583000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>217000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>-670000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1681000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1666000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2176000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1988000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1536000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1264000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2514000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1585000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>602000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>192200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>223900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>532000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-884000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1085000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1095000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1540000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1028000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1128000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1291000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1542000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1636000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>962000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1138000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2666000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3348000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>382000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>427000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-272000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-151000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>176000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>526000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-286000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>408000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1558000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>124500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>132500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1610,423 +1643,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E20" s="3">
         <v>21000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-10000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>325000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-12000</v>
       </c>
       <c r="S20" s="3">
         <v>-12000</v>
       </c>
       <c r="T20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>5000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>7000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>6000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-259000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1169000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1557000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1553000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2098000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1563000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1618000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1796000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2085000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2210000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1526000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1656000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3563000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3894000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>836000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>850000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>167000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>192000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>505000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>855000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>153000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>805000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1973000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>158600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>263000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E22" s="3">
         <v>84000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>87000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>85000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>86000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>85000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>90000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>81000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>85000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>79000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>81000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>80000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>83000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>431000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>109000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>106000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>108000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>115000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>110000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>137000</v>
       </c>
       <c r="W22" s="3">
         <v>137000</v>
       </c>
       <c r="X22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>135000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>144000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>153000</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>474000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-947000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>625000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>996000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1007000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1456000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>935000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1037000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1204000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1462000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1555000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>880000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1049000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2560000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3226000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>264000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>307000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-389000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-281000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>40000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>393000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-416000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>271000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1411000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>119600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>127800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-131000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>215000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>279000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>301000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>304000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>323000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>343000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>374000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>404000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>284000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>258000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>386000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>784000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>791000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>41000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>167000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>776000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>105000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>116000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>201000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>394000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>314000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>274000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>34700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>33500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2108,174 +2157,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-816000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>410000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>717000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>706000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1152000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>612000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>694000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>830000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1058000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1271000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>622000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>663000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1776000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2435000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>223000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>140000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-386000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-76000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>192000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-810000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-43000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1137000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>84900</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>94300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-735000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>241000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>488000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>438000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>726000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>347000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>411000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>538000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>685000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>882000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>357000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1387000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2277000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>194000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>111000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-412000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-94000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>158000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-657000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1084000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>69800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>78500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2357,8 +2415,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2404,8 +2465,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>91</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>91</v>
@@ -2422,17 +2483,17 @@
       <c r="W29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y29" s="3">
         <v>343000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
@@ -2440,8 +2501,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2523,8 +2587,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2606,174 +2673,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-21000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>10000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-325000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>13000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>12000</v>
       </c>
       <c r="S32" s="3">
         <v>12000</v>
       </c>
       <c r="T32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-7000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>4800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-735000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>241000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>488000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>438000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>726000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>347000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>411000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>538000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>685000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>882000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>357000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1387000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2277000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>194000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>111000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-412000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-94000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>158000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-314000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1084000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>69800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>78500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2855,179 +2931,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-735000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>241000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>488000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>438000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>726000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>347000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>411000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>538000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>685000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>882000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>357000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1387000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2277000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>194000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>111000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-412000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-94000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>158000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-314000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1084000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>69800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>78500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3057,8 +3142,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3088,91 +3174,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4377000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4440000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5240000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5780000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5887000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5280000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5043000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5138000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5672000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5188000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4744000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3743000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3327000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3314000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>2153000</v>
       </c>
       <c r="S41" s="3">
         <v>2153000</v>
       </c>
       <c r="T41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="U41" s="3">
         <v>1571000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1697000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2085000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2384000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2234000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2025000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2926000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>600300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>516300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3254,506 +3344,527 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E43" s="3">
         <v>554000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>499000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>577000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>640000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>623000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>600000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>554000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>530000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>558000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>509000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>407000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>371000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>363000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>311000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>427000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>383000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>248000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>189000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>194000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>173000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>239000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>224000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>190000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>236800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>231400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1781000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1691000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1699000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1766000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1734000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1821000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1825000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1776000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1878000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2111000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2160000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2159000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2289000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2265000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1930000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1966000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1852000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1898000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1940000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1887000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1890000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>2038000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1901000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>124600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>119000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>1691000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1690000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>786000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>754000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>722000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>612000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>547000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>522000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>806000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>519000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>495000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>609000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>594000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>921000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>529000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>333000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>372000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>307000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>319000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>356000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>352000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>321000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>455000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>486000</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>8538000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8465000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8216000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8810000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9015000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8249000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8011000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8039000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8784000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8143000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7859000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6919000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6451000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6887000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5510000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4843000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4874000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3978000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4103000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4575000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4796000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4684000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4742000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5503000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>961600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>866800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>3969000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3983000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4064000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4113000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4334000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4594000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4762000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4715000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4646000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4670000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4643000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4587000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4556000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4527000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4474000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4459000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4444000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1234000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1233000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1214000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1233000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1213000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1243000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1218000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1446800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1448600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>26084000</v>
+      </c>
+      <c r="E48" s="3">
         <v>25821000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25329000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25202000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25153000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>24954000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24747000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>24628000</v>
       </c>
       <c r="L48" s="3">
         <v>24628000</v>
       </c>
       <c r="M48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="N48" s="3">
         <v>24698000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24727000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24809000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24141000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24758000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16890000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16891000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12826000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>13226000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13727000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13755000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13806000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13961000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13943000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1564000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1560900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3761,7 +3872,7 @@
         <v>3730000</v>
       </c>
       <c r="E49" s="3">
-        <v>4918000</v>
+        <v>3730000</v>
       </c>
       <c r="F49" s="3">
         <v>4918000</v>
@@ -3770,73 +3881,76 @@
         <v>4918000</v>
       </c>
       <c r="H49" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="I49" s="3">
         <v>4919000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4920000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4927000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4937000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4938000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4939000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4983000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4999000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4995000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5025000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3064000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3037000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1403000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1559000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1585000</v>
       </c>
       <c r="X49" s="3">
         <v>1585000</v>
       </c>
       <c r="Y49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="Z49" s="3">
         <v>1556000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1586000</v>
       </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
       <c r="AB49" s="3">
         <v>0</v>
       </c>
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -3918,8 +4032,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4001,91 +4118,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3831000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3966000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3915000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3799000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3886000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4174000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4194000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4092000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3853000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4127000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3977000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3964000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>4124000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3842000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4100000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3346000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3383000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3190000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3997000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>4046000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4027000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4020000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3570000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3557000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>163600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>164700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4167,91 +4290,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>46152000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45965000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46442000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46842000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>47306000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46890000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46634000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46528000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46848000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46506000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46116000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>45180000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>44939000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44392000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43867000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32602000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32629000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22631000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>24118000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>25122000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25396000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25308000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25072000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25807000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>4136000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4041000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4281,8 +4410,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4312,108 +4442,112 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1504000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1556000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1571000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1537000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1525000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1448000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1444000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1157000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1168000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1458000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1032000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1072000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1140000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1155000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1337000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1064000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1213000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1101000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1125000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>944000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1046000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1059000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1118000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1044000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>120000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>127400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>15000</v>
       </c>
       <c r="I58" s="3">
         <v>15000</v>
@@ -4422,304 +4556,313 @@
         <v>15000</v>
       </c>
       <c r="K58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L58" s="3">
         <v>13000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>20000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>26000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>29000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>375000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>66000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>303000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>308000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>43000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>49000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>680000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>57000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>59000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>63000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>116000</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>1690000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1551000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>605000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>680000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>708000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>623000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>521000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>626000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1150000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>742000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>698000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>713000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>801000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>846000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>441000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>415000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>463000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>524000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>375000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>536000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>595000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>629000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>557000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>386000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>71100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>61000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>3206000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3120000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2188000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2230000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2247000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2086000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1980000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1798000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2331000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2220000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1751000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1811000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1970000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2376000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1844000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1782000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1984000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1668000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1549000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2160000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1698000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1747000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1738000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1546000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>191100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>188400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>4765000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4826000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5083000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5131000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5130000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5135000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5139000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5137000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5140000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5135000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5140000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5142000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5150000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5161000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5494000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5504000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5499000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5695000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5696000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5712000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6344000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6364000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6384000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>2800</v>
       </c>
       <c r="AB61" s="3">
         <v>2800</v>
@@ -4727,91 +4870,97 @@
       <c r="AC61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6863000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6730000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6864000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6947000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7303000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7362000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7425000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7419000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7298000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7441000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7575000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7481000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7464000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7028000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8129000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6849000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6844000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>5883000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6187000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6144000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6088000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6130000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5328000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5248000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>101700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>97800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -4893,8 +5042,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4976,8 +5128,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5059,91 +5214,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>23439000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23194000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22578000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22731000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23131000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23033000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23016000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>22839000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23174000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23165000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23317000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23148000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23252000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22960000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23718000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16856000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17031000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15038000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15211000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15766000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15917000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16022000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15458000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16165000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>559400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>542300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5173,8 +5334,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5256,8 +5418,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5339,8 +5504,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5422,8 +5590,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5505,91 +5676,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7338000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7282000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6284000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6173000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6306000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6566000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7132000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>2014900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1956700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5671,8 +5848,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5754,8 +5934,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -5837,91 +6020,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>22713000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22771000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>23864000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>24111000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24175000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>23857000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23618000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23689000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23674000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23341000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22799000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22032000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21687000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21432000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>20149000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15746000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15598000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7593000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>8907000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9356000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9479000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9286000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9614000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9642000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>3576600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3498700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6003,179 +6192,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>120000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-735000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>241000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>488000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>438000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>726000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>347000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>411000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>538000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>685000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>882000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>357000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1387000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2277000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>194000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>111000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-412000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-94000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>158000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-314000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1084000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>69800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>78500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6205,91 +6403,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>495000</v>
+      </c>
+      <c r="E83" s="3">
         <v>604000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>457000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>476000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>460000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>557000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>538000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>507000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>544000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>574000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>566000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>524000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>572000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>559000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>466000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>435000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>441000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>363000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>328000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>325000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>434000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>390000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>409000</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
       <c r="AB83" s="3">
         <v>0</v>
       </c>
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6371,8 +6573,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6454,8 +6659,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6537,8 +6745,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6620,8 +6831,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6703,91 +6917,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>776000</v>
+      </c>
+      <c r="E89" s="3">
         <v>795000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>758000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>924000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1004000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1387000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1050000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>639000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1302000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1638000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1859000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1031000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>889000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>875000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1004000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>434000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>520000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>411000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>706000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>141000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>507000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>590000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>532000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>448000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>133100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>204700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -6817,91 +7037,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-688000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-891000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-792000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-755000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-611000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-669000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-569000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-658000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-539000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-546000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-548000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-509000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-451000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-446000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-502000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-374000</v>
       </c>
       <c r="T91" s="3">
         <v>-374000</v>
       </c>
       <c r="U91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-387000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-313000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-326000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-350000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-307000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-405000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-41300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-50300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -6983,8 +7207,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7066,91 +7293,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-618000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-780000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-639000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-301000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>9000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-387000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-499000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-603000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-408000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-405000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-454000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-264000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-163000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>362000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-383000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-351000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>422000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-477000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-386000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-347000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-284000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-256000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-306000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>556000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-44700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-48000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7180,70 +7413,71 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-261000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-351000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-353000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-178000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-159000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-158000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-159000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-158000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-160000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-141000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-124000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-122000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-87000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-67000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-61000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-31000</v>
       </c>
       <c r="U96" s="3">
         <v>-31000</v>
       </c>
       <c r="V96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-31000</v>
       </c>
       <c r="X96" s="3">
         <v>-31000</v>
@@ -7252,19 +7486,22 @@
         <v>-31000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-32000</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7346,8 +7583,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7429,8 +7669,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7512,91 +7755,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-815000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-656000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-727000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-406000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-763000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-646000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-570000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-409000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-789000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-408000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-348000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-709000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-328000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-369000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-82000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-360000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-57000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-704000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-92000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-72000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-126000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-355000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-4400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -7604,13 +7853,13 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-3000</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -7622,50 +7871,50 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-1000</v>
       </c>
       <c r="W101" s="3">
         <v>-1000</v>
       </c>
       <c r="X101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y101" s="3">
         <v>1000</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
@@ -7678,87 +7927,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-800000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-540000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-107000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>607000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>237000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-95000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-534000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>484000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>444000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1001000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>416000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>13000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>909000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>252000</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>582000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-126000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-388000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-299000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>150000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>209000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-901000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>649000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>84000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>155200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,378 +665,391 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2833000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2643000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2774000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2527000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2859000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2853000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3310000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2826000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2893000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2956000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3279000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3540000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3055000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2721000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2883000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2678000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2063000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2093000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1904000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1837000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1712000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1790000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2228000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1993000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2160000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>316700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>356400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1937000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1941000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2093000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1815000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1850000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1739000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1905000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1768000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1704000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1712000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1814000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1927000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1900000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1776000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1987000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1889000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1545000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1490000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1577000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1315000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1176000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1152000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1411000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1270000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1277000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>167400</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>196700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>896000</v>
+      </c>
+      <c r="E10" s="3">
         <v>702000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>681000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>712000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1009000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1114000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1405000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1058000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1189000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1244000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1465000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1613000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1155000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>945000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>896000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>789000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>518000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>603000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>327000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>522000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>536000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>638000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>817000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>723000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>883000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>149300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>159700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,94 +1080,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>101000</v>
+      </c>
+      <c r="E12" s="3">
         <v>71000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>106000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>77000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>67000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>82000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>67000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>77000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>61000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>74000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>72000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>78000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>71000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>40000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>86000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>98000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>74000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>87000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>89000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>97000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>73000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>98000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>100000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>81000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>10900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>8000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1239,94 +1256,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E14" s="3">
         <v>23000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1652000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>60000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>17000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>57000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-77000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>64000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-80000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>81000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-311000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-514000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>27000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>44000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>451000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>495000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>67000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>28000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1029000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>117000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>18000</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
       <c r="AC14" s="3">
         <v>0</v>
       </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1411,8 +1434,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1440,180 +1466,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2023000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2111000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3658000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1827000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1774000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1758000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1770000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1798000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1765000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1665000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1737000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1904000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2093000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1583000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>217000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-670000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1681000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1666000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2176000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1988000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1536000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1264000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2514000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1585000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>602000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>192200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>223900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>810000</v>
+      </c>
+      <c r="E18" s="3">
         <v>532000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-884000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1085000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1095000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1540000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1028000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1128000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1291000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1542000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1636000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>962000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1138000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2666000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3348000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>382000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>427000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-272000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-151000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>176000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>526000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-286000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>408000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1558000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>124500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>132500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1644,438 +1677,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E20" s="3">
         <v>40000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>21000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-10000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>325000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-12000</v>
       </c>
       <c r="T20" s="3">
         <v>-12000</v>
       </c>
       <c r="U20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>5000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>7000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>6000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-4800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-4700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1067000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-259000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1169000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1557000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1553000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2098000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1563000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1618000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1796000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2085000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2210000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1526000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1656000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3563000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3894000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>836000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>850000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>167000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>192000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>505000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>855000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>153000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>805000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1973000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>158600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>263000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E22" s="3">
         <v>98000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>84000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>87000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>85000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>86000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>85000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>90000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>81000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>85000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>79000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>81000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>80000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>83000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>431000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>109000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>106000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>108000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>115000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>110000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>137000</v>
       </c>
       <c r="X22" s="3">
         <v>137000</v>
       </c>
       <c r="Y22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>135000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>144000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>153000</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E23" s="3">
         <v>474000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-947000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>625000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>996000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1007000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1456000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>935000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1037000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1204000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1462000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1555000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>880000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1049000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2560000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3226000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>264000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>307000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-389000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-281000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>40000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>393000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-416000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>271000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1411000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>119600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>127800</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E24" s="3">
         <v>205000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-131000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>215000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>279000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>301000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>304000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>323000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>343000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>374000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>404000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>284000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>258000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>386000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>784000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>791000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>41000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>167000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>776000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>105000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>116000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>201000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>394000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>314000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>274000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>34700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>33500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2160,180 +2209,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E26" s="3">
         <v>269000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-816000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>410000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>717000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>706000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1152000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>612000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>694000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>830000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1058000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1271000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>622000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>663000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1776000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2435000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>223000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>140000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-386000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-76000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>192000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-810000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-43000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1137000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>84900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>94300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E27" s="3">
         <v>120000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-735000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>241000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>488000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>438000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>726000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>347000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>411000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>538000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>685000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>882000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>357000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1387000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2277000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>194000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>111000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-412000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-94000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>158000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-657000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1084000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>69800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>78500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2418,8 +2476,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2468,8 +2529,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>91</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>91</v>
@@ -2486,17 +2547,17 @@
       <c r="X29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z29" s="3">
         <v>343000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
@@ -2504,8 +2565,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2590,8 +2654,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2676,180 +2743,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-40000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-21000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>10000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-325000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>13000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>12000</v>
       </c>
       <c r="T32" s="3">
         <v>12000</v>
       </c>
       <c r="U32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-5000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>4800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>4700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E33" s="3">
         <v>120000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-735000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>241000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>488000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>438000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>726000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>347000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>411000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>538000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>685000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>882000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>357000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1387000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2277000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>194000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>111000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-412000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-94000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>158000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-314000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1084000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>69800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>78500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -2934,185 +3010,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E35" s="3">
         <v>120000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-735000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>241000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>488000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>438000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>726000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>347000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>411000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>538000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>685000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>882000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>357000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1387000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2277000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>194000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>111000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-412000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-94000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>158000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-314000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1084000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>69800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>78500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3143,8 +3228,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3175,94 +3261,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4157000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4377000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4440000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5240000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5780000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5887000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5280000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5043000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5138000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5672000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5188000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4744000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3743000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3327000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3314000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="S41" s="3">
-        <v>2153000</v>
       </c>
       <c r="T41" s="3">
         <v>2153000</v>
       </c>
       <c r="U41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="V41" s="3">
         <v>1571000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1697000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2085000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2384000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2234000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2025000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2926000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>600300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>516300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3347,524 +3437,545 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>603000</v>
+      </c>
+      <c r="E43" s="3">
         <v>557000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>554000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>499000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>577000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>640000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>623000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>600000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>554000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>530000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>558000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>509000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>407000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>371000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>363000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>311000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>427000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>383000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>248000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>189000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>194000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>173000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>239000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>224000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>190000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>236800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>231400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1913000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1781000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1691000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1699000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1766000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1734000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1821000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1825000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1776000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1878000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2111000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2160000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2159000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2289000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2265000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1930000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1966000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1852000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1898000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1940000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1887000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1890000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2038000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1901000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>124600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>119000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>742000</v>
+      </c>
+      <c r="E45" s="3">
         <v>1691000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1690000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>786000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>754000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>722000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>612000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>547000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>522000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>806000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>519000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>495000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>609000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>594000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>921000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>529000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>333000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>372000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>307000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>319000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>356000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>352000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>321000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>455000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>486000</v>
       </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
       <c r="AC45" s="3">
         <v>0</v>
       </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7370000</v>
+      </c>
+      <c r="E46" s="3">
         <v>8538000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8465000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8216000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8810000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9015000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8249000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8011000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8039000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8784000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8143000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7859000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6919000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6451000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6887000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5510000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4843000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4874000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3978000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4103000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4575000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4796000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4684000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4742000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5503000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>961600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>866800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>4004000</v>
+      </c>
+      <c r="E47" s="3">
         <v>3969000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3983000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4064000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4113000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4334000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4594000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4762000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4715000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4646000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4670000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4643000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4587000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4556000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4527000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4474000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4459000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4444000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1234000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1233000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1214000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1233000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1213000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1243000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1218000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1446800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1448600</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>26311000</v>
+      </c>
+      <c r="E48" s="3">
         <v>26084000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25821000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25329000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25202000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25153000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24954000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24747000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>24628000</v>
       </c>
       <c r="M48" s="3">
         <v>24628000</v>
       </c>
       <c r="N48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="O48" s="3">
         <v>24698000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24727000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24809000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24141000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24758000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16890000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16891000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12826000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>13226000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13727000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13755000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13806000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13961000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13943000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1564000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1560900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3875,7 +3986,7 @@
         <v>3730000</v>
       </c>
       <c r="F49" s="3">
-        <v>4918000</v>
+        <v>3730000</v>
       </c>
       <c r="G49" s="3">
         <v>4918000</v>
@@ -3884,73 +3995,76 @@
         <v>4918000</v>
       </c>
       <c r="I49" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="J49" s="3">
         <v>4919000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>4920000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4927000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4937000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4938000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4939000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4983000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4999000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4995000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5025000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3064000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3037000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1403000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1559000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1585000</v>
       </c>
       <c r="Y49" s="3">
         <v>1585000</v>
       </c>
       <c r="Z49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="AA49" s="3">
         <v>1556000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1586000</v>
       </c>
-      <c r="AB49" s="3">
-        <v>0</v>
-      </c>
       <c r="AC49" s="3">
         <v>0</v>
       </c>
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4035,8 +4149,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4121,94 +4238,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3871000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3831000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3966000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3915000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3799000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3886000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4174000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4194000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4092000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3853000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4127000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3977000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3964000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>4124000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3842000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>4100000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3346000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3383000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3190000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3997000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>4046000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4027000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4020000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>3570000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3557000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>163600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>164700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4293,94 +4416,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>45286000</v>
+      </c>
+      <c r="E54" s="3">
         <v>46152000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45965000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>46442000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46842000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>47306000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>46890000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46634000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46528000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46848000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46506000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46116000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45180000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>44939000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44392000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43867000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32602000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32629000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22631000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>24118000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>25122000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25396000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25308000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25072000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>25807000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4136000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4041000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4411,8 +4540,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4443,114 +4573,118 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1504000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1556000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1571000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1537000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1525000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1448000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1444000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1157000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1168000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1458000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1032000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1072000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1155000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1337000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1064000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1213000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1101000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1125000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>944000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1046000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1059000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1118000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1044000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>120000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>127400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>13000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>13000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>15000</v>
       </c>
       <c r="J58" s="3">
         <v>15000</v>
@@ -4559,313 +4693,322 @@
         <v>15000</v>
       </c>
       <c r="L58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M58" s="3">
         <v>13000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>20000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>26000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>29000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>375000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>66000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>303000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>308000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>43000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>49000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>680000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>57000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>59000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>63000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>116000</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
       <c r="AC58" s="3">
         <v>0</v>
       </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>732000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1690000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1551000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>605000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>680000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>708000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>623000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>521000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>626000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1150000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>742000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>698000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>713000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>801000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>846000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>441000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>415000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>463000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>524000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>375000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>536000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>595000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>629000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>557000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>386000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>71100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>61000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2270000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3206000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3120000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2188000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2230000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2247000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2086000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1980000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1798000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2331000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2220000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1751000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1811000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1970000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2376000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1844000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1782000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1984000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1668000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1549000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2160000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1698000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1747000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1738000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1546000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>191100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>188400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>4761000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4765000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4826000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5083000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5131000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5130000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5135000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5139000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5137000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5140000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5135000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5140000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5142000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5150000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5161000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5494000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5504000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5499000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5695000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5696000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5712000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6344000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6364000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6384000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="AB61" s="3">
-        <v>2800</v>
       </c>
       <c r="AC61" s="3">
         <v>2800</v>
@@ -4873,94 +5016,100 @@
       <c r="AD61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6770000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6863000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6730000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>6864000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>6947000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7303000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7362000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7425000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7419000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7298000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7441000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7575000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7481000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7464000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7028000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8129000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6849000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6844000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5883000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6187000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6144000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6088000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6130000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5328000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5248000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>101700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>97800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5045,8 +5194,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5131,8 +5283,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5217,94 +5372,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>22447000</v>
+      </c>
+      <c r="E66" s="3">
         <v>23439000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23194000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22578000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22731000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23131000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23033000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23016000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22839000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23174000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23165000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23317000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23148000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23252000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22960000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23718000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16856000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17031000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15038000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15211000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15766000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15917000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16022000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15458000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>16165000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>559400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>542300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5335,8 +5496,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5421,8 +5583,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5507,8 +5672,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5593,8 +5761,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5679,94 +5850,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7208000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7338000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7282000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6284000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6173000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6306000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6566000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7132000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>2014900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1956700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -5851,8 +6028,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -5937,8 +6117,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6023,94 +6206,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>22839000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22713000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22771000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>23864000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>24111000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24175000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>23857000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23618000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23689000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23674000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23341000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22799000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22032000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21687000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21432000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>20149000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15746000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15598000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7593000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>8907000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>9356000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9479000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9286000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9614000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9642000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>3576600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3498700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6195,185 +6384,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>305000</v>
+      </c>
+      <c r="E81" s="3">
         <v>120000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-735000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>241000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>488000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>438000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>726000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>347000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>411000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>538000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>685000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>882000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>357000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1387000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2277000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>194000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>111000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-412000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-94000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>158000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-314000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-11000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1084000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>69800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>78500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6404,94 +6602,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>480000</v>
+      </c>
+      <c r="E83" s="3">
         <v>495000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>604000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>457000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>476000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>460000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>557000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>538000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>507000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>544000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>574000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>566000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>524000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>572000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>559000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>466000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>435000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>441000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>363000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>328000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>325000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>434000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>390000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>409000</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
       <c r="AC83" s="3">
         <v>0</v>
       </c>
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6576,8 +6778,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6662,8 +6867,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6748,8 +6956,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -6834,8 +7045,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -6920,94 +7134,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E89" s="3">
         <v>776000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>795000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>758000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>924000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1004000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1387000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1050000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>639000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1302000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1638000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1859000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1031000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>889000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>875000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1004000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>434000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>520000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>411000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>706000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>141000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>507000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>590000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>532000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>448000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>133100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>204700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7038,94 +7258,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-769000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-688000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-891000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-792000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-755000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-611000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-669000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-569000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-658000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-539000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-546000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-548000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-509000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-451000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-446000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-502000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-374000</v>
       </c>
       <c r="U91" s="3">
         <v>-374000</v>
       </c>
       <c r="V91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-387000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-313000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-326000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-350000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-307000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-405000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-41300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-50300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7210,8 +7434,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7296,94 +7523,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-743000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-618000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-780000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-639000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-301000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>9000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-387000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-499000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-603000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-408000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-405000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-454000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-264000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-163000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>362000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-383000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-351000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>422000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-477000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-386000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-347000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-284000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-256000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-306000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>556000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-44700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-48000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7414,73 +7647,74 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-175000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-261000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-351000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-353000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-178000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-159000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-158000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-159000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-158000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-160000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-141000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-124000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-122000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-87000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-67000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-61000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-31000</v>
       </c>
       <c r="V96" s="3">
         <v>-31000</v>
       </c>
       <c r="W96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-31000</v>
       </c>
       <c r="Y96" s="3">
         <v>-31000</v>
@@ -7489,19 +7723,22 @@
         <v>-31000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-32000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7586,8 +7823,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7672,8 +7912,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -7758,94 +8001,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-309000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-221000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-815000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-656000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-727000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-406000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-763000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-646000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-570000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-409000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-789000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-408000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-348000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-709000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-328000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-369000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-82000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-360000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-57000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-704000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-92000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-72000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-126000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-355000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-4400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
@@ -7856,13 +8105,13 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-3000</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -7874,50 +8123,50 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-1000</v>
       </c>
       <c r="X101" s="3">
         <v>-1000</v>
       </c>
       <c r="Y101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z101" s="3">
         <v>1000</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
@@ -7930,90 +8179,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-220000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-63000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-540000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-107000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>607000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>237000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-95000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-534000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>484000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>444000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1001000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>416000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>909000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>252000</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>582000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-126000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-388000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-299000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>150000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>209000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-901000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>649000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>84000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>155200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>88400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GOLD_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,391 +665,404 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2862000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2833000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2643000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2774000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2527000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2859000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2853000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3310000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2826000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2893000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2956000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3279000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3540000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3055000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2721000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2883000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2678000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2063000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2093000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1904000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1837000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1712000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1790000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2228000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1993000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2160000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>316700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>356400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1915000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1937000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1941000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2093000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1815000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1850000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1739000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1905000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1768000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1704000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1712000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1814000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1927000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1900000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1776000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1987000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1889000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1545000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1490000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1577000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1315000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1176000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1152000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1411000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1270000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1277000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>167400</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>196700</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>169100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>947000</v>
+      </c>
+      <c r="E10" s="3">
         <v>896000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>702000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>681000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>712000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1009000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1114000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1405000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1058000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1189000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1244000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1465000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1613000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1155000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>945000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>896000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>789000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>518000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>603000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>327000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>522000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>536000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>638000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>817000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>723000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>883000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>149300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>159700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>130900</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1081,97 +1094,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E12" s="3">
         <v>101000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>71000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>106000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>77000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>100000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>67000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>82000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>67000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>77000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>61000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>74000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>72000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>78000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>71000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>40000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>86000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>98000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>74000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>87000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>89000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>97000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>73000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>98000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>100000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>81000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>10900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>8000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>11200</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1259,97 +1276,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E14" s="3">
         <v>39000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1652000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>60000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>17000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>57000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-77000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>64000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-80000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>81000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-311000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-514000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2726000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>27000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>44000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>451000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>495000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>67000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>28000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1029000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>117000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>18000</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
       <c r="AD14" s="3">
         <v>0</v>
       </c>
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1437,8 +1460,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1467,186 +1493,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2007000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2023000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2111000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3658000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1827000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1774000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1758000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1770000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1798000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1765000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1665000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1737000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1904000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2093000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1583000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>217000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>-670000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1681000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1666000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2176000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1988000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1536000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1264000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2514000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1585000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>602000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>192200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>223900</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>196300</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>855000</v>
+      </c>
+      <c r="E18" s="3">
         <v>810000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>532000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-884000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1085000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1095000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1540000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1028000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1128000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1291000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1542000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1636000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>962000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1138000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2666000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3348000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>382000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>427000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-272000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-151000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>176000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>526000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-286000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>408000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1558000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>124500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>132500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>103700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1678,453 +1711,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E20" s="3">
         <v>42000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>40000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>21000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-10000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>325000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-13000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-12000</v>
       </c>
       <c r="U20" s="3">
         <v>-12000</v>
       </c>
       <c r="V20" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>4000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>5000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>7000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>6000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-4800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-4700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>5800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1395000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1332000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1067000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-259000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1169000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1557000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1553000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2098000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1563000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1618000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1796000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2085000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2210000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1526000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1656000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3563000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3894000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>836000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>850000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>167000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>192000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>505000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>855000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>153000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>805000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1973000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>158600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>263000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>113700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>88000</v>
+      </c>
+      <c r="E22" s="3">
         <v>86000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>98000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>84000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>87000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>85000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>86000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>85000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>81000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>85000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>79000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>81000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>80000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>83000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>431000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>109000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>106000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>108000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>115000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>110000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>137000</v>
       </c>
       <c r="Y22" s="3">
         <v>137000</v>
       </c>
       <c r="Z22" s="3">
+        <v>137000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>135000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>144000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>153000</v>
       </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>803000</v>
+      </c>
+      <c r="E23" s="3">
         <v>766000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>474000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-947000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>625000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>996000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1007000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1456000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>935000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1037000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1204000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1462000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1555000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>880000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1049000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2560000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3226000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>264000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>307000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-389000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-281000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>40000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>393000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-416000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>271000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1411000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>119600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>127800</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>109500</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E24" s="3">
         <v>264000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>205000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-131000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>215000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>279000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>301000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>304000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>323000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>343000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>374000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>404000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>284000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>258000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>386000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>784000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>791000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>41000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>167000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>776000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>105000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>116000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>201000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>394000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>314000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>274000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>34700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>33500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>32200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2212,186 +2261,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>585000</v>
+      </c>
+      <c r="E26" s="3">
         <v>502000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>269000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-816000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>410000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>717000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>706000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1152000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>612000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>694000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>830000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1058000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1271000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>622000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>663000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1776000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2435000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>223000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>140000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1165000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-386000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-76000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>192000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-810000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-43000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1137000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>84900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>94300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>77300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E27" s="3">
         <v>305000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>120000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-735000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>241000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>488000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>438000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>726000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>347000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>411000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>538000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>685000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>882000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>357000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1387000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2277000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>194000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>111000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1197000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-412000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-94000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>158000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-657000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1084000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>69800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>78500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2479,8 +2537,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2532,8 +2593,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>91</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>91</v>
@@ -2550,17 +2611,17 @@
       <c r="Y29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA29" s="3">
         <v>343000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
@@ -2568,8 +2629,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -2657,8 +2721,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -2746,186 +2813,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-42000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-40000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-21000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>10000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-325000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>13000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>12000</v>
       </c>
       <c r="U32" s="3">
         <v>12000</v>
       </c>
       <c r="V32" s="3">
+        <v>12000</v>
+      </c>
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-4000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-5000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>4800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>4700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-5800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E33" s="3">
         <v>305000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>120000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-735000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>241000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>488000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>438000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>726000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>347000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>411000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>538000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>685000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>882000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>357000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1387000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2277000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>194000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>111000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1197000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-412000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-94000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>158000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-314000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1084000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>69800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>78500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -3013,191 +3089,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E35" s="3">
         <v>305000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>120000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-735000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>241000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>488000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>438000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>726000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>347000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>411000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>538000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>685000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>882000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>357000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1387000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2277000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>194000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>111000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1197000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-412000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-94000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>158000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-314000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1084000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>69800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>78500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -3229,8 +3314,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -3262,97 +3348,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>4261000</v>
+      </c>
+      <c r="E41" s="3">
         <v>4157000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4377000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4440000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5240000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5780000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5887000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5280000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5043000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5138000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5672000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5188000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4744000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3743000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3327000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3314000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2405000</v>
-      </c>
-      <c r="T41" s="3">
-        <v>2153000</v>
       </c>
       <c r="U41" s="3">
         <v>2153000</v>
       </c>
       <c r="V41" s="3">
+        <v>2153000</v>
+      </c>
+      <c r="W41" s="3">
         <v>1571000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1697000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2085000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2384000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2234000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2025000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2926000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>600300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>516300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>361100</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -3440,542 +3530,563 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>561000</v>
+      </c>
+      <c r="E43" s="3">
         <v>603000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>557000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>554000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>499000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>577000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>640000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>623000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>554000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>530000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>558000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>509000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>407000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>371000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>363000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>311000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>427000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>383000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>248000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>189000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>194000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>173000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>239000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>224000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>190000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>236800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>231400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>223400</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>1913000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1868000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1913000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1781000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1691000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1699000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1766000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1734000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1821000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1825000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1776000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1878000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2111000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2160000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2159000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2289000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2265000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1930000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1966000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1852000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1898000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1940000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1887000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1890000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2038000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1901000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>124600</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>119000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>135800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>684000</v>
+      </c>
+      <c r="E45" s="3">
         <v>742000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1691000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1690000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>786000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>754000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>722000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>612000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>547000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>522000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>806000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>519000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>495000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>609000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>594000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>921000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>529000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>333000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>372000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>307000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>319000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>356000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>352000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>321000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>455000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>486000</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
       <c r="AD45" s="3">
         <v>0</v>
       </c>
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>7419000</v>
+      </c>
+      <c r="E46" s="3">
         <v>7370000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8538000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8465000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8216000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8810000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9015000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8249000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8011000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8039000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8784000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8143000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7859000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6919000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6451000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6887000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5510000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4843000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4874000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3978000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4103000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4575000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4796000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4684000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4742000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5503000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>961600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>866800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>720300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>3998000</v>
+      </c>
+      <c r="E47" s="3">
         <v>4004000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>3969000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>3983000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4064000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4113000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4334000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4594000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4762000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4715000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4646000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4670000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4643000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4587000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4556000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4527000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4474000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4459000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4444000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1234000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1233000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1214000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1233000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1213000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1243000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1218000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1446800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1448600</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1479500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>26621000</v>
+      </c>
+      <c r="E48" s="3">
         <v>26311000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26084000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25821000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25329000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25202000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>25153000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24954000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24747000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24755000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>24628000</v>
       </c>
       <c r="N48" s="3">
         <v>24628000</v>
       </c>
       <c r="O48" s="3">
+        <v>24628000</v>
+      </c>
+      <c r="P48" s="3">
         <v>24698000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24727000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24809000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24141000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24758000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16890000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16891000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12826000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>13226000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>13727000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>13755000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>13806000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>13961000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>13943000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1564000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1560900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1567300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3989,7 +4100,7 @@
         <v>3730000</v>
       </c>
       <c r="G49" s="3">
-        <v>4918000</v>
+        <v>3730000</v>
       </c>
       <c r="H49" s="3">
         <v>4918000</v>
@@ -3998,73 +4109,76 @@
         <v>4918000</v>
       </c>
       <c r="J49" s="3">
+        <v>4918000</v>
+      </c>
+      <c r="K49" s="3">
         <v>4919000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4920000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4927000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4937000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4938000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4939000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4983000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4999000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4995000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5025000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3064000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3037000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1403000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1559000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1560000</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>1585000</v>
       </c>
       <c r="Z49" s="3">
         <v>1585000</v>
       </c>
       <c r="AA49" s="3">
+        <v>1585000</v>
+      </c>
+      <c r="AB49" s="3">
         <v>1556000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1586000</v>
       </c>
-      <c r="AC49" s="3">
-        <v>0</v>
-      </c>
       <c r="AD49" s="3">
         <v>0</v>
       </c>
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -4152,8 +4266,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -4241,97 +4358,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>3827000</v>
+      </c>
+      <c r="E52" s="3">
         <v>3871000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>3831000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>3966000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>3915000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>3799000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>3886000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4174000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4194000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4092000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3853000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>4127000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3977000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3964000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>4124000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3842000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>4100000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3346000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3383000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3190000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>3997000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>4046000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>4027000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>4020000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>3570000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3557000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>163600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>164700</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>151000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -4419,97 +4542,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>45595000</v>
+      </c>
+      <c r="E54" s="3">
         <v>45286000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>46152000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45965000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>46442000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>46842000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>47306000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>46890000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46634000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46528000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46848000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46506000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46116000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45180000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>44939000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>44392000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>43867000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32602000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>32629000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22631000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>24118000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>25122000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>25396000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>25308000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>25072000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>25807000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4136000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>4041000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>3918100</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -4541,8 +4670,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -4574,120 +4704,124 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>1584000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1525000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1504000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1556000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1571000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1537000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1525000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1448000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1444000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1157000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1168000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1458000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1032000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1072000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1140000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1155000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1337000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1064000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1213000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1101000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1125000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>944000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1046000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1059000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1118000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1044000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>120000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>127400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>136700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>13000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>13000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>15000</v>
       </c>
       <c r="K58" s="3">
         <v>15000</v>
@@ -4696,322 +4830,331 @@
         <v>15000</v>
       </c>
       <c r="M58" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N58" s="3">
         <v>13000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>20000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>21000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>26000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>29000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>375000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>66000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>303000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>308000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>43000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>49000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>680000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>57000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>59000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>63000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>116000</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
       <c r="AD58" s="3">
         <v>0</v>
       </c>
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>826000</v>
+      </c>
+      <c r="E59" s="3">
         <v>732000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1690000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1551000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>605000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>680000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>708000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>623000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>521000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>626000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1150000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>742000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>698000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>713000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>801000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>846000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>441000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>415000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>463000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>524000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>375000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>536000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>595000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>629000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>557000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>386000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>71100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>61000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>34700</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>2418000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2270000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3206000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3120000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2188000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2230000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2247000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2086000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1980000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1798000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2331000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2220000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1751000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1811000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1970000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2376000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1844000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1782000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1984000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1668000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1549000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2160000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1698000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1747000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1738000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1546000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>191100</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>188400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>171400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>4767000</v>
+      </c>
+      <c r="E61" s="3">
         <v>4761000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4765000</v>
       </c>
-      <c r="F61" s="3">
-        <v>4826000</v>
-      </c>
       <c r="G61" s="3">
+        <v>4769000</v>
+      </c>
+      <c r="H61" s="3">
         <v>5083000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5131000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5130000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5135000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5139000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5137000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5140000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5135000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5140000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5142000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5150000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5161000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5494000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5504000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5499000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5695000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5696000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5712000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6344000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6364000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6384000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7328000</v>
-      </c>
-      <c r="AC61" s="3">
-        <v>2800</v>
       </c>
       <c r="AD61" s="3">
         <v>2800</v>
@@ -5019,97 +5162,103 @@
       <c r="AE61" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>6712000</v>
+      </c>
+      <c r="E62" s="3">
         <v>6770000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>6863000</v>
       </c>
-      <c r="F62" s="3">
-        <v>6730000</v>
-      </c>
       <c r="G62" s="3">
+        <v>6787000</v>
+      </c>
+      <c r="H62" s="3">
         <v>6864000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>6947000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7303000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7362000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7425000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7419000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7298000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7441000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7575000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7481000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7464000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7028000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8129000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6849000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6844000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5883000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6187000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6144000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6088000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6130000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5328000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>5248000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>101700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>97800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>88900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -5197,8 +5346,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5286,8 +5438,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -5375,97 +5530,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>22575000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22447000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23439000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23194000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>22578000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>22731000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23131000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>23033000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23016000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22839000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23174000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23165000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23317000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23148000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23252000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22960000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23718000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16856000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17031000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15038000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15211000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15766000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15917000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16022000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15458000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>16165000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>559400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>542300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>502400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -5497,8 +5658,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -5586,8 +5748,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -5675,8 +5840,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -5764,8 +5932,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -5853,97 +6024,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>-7016000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7208000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7338000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7282000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6284000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6173000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6306000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-6566000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7132000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7320000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7571000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7949000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8474000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9214000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9446000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9722000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11020000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-13227000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-13351000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-13453000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-12148000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11701000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11572000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-11759000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-11428000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-11382000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>2014900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1956700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1874200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -6031,8 +6208,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -6120,8 +6300,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -6209,97 +6392,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>23020000</v>
+      </c>
+      <c r="E76" s="3">
         <v>22839000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>22713000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>22771000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>23864000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>24111000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24175000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>23857000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23618000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23689000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23674000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23341000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>22799000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>22032000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>21687000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21432000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>20149000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15746000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15598000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7593000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>8907000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>9356000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>9479000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>9286000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>9614000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>9642000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>3576600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>3498700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>3415700</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -6387,191 +6576,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E81" s="3">
         <v>305000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>120000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-735000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>241000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>488000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>438000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>726000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>347000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>411000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>538000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>685000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>882000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>357000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1387000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2277000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>194000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>111000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1197000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-412000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-94000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>158000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-314000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-11000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1084000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>69800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>78500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>65600</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -6603,97 +6801,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E83" s="3">
         <v>480000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>495000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>604000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>457000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>476000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>460000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>557000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>538000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>507000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>544000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>574000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>566000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>524000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>572000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>559000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>466000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>435000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>441000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>363000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>328000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>325000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>434000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>390000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>409000</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
       <c r="AD83" s="3">
         <v>0</v>
       </c>
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -6781,8 +6983,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -6870,8 +7075,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -6959,8 +7167,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -7048,8 +7259,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -7137,97 +7351,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>1127000</v>
+      </c>
+      <c r="E89" s="3">
         <v>832000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>776000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>795000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>758000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>924000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1004000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1387000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1050000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>639000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1302000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1638000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1859000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1031000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>889000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>875000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1004000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>434000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>520000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>411000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>706000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>141000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>507000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>590000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>532000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>448000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>133100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>204700</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>119300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -7259,97 +7479,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-768000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-769000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-688000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-891000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-792000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-755000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-611000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-669000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-569000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-658000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-539000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-546000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-548000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-509000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-451000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-446000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-502000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-379000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-374000</v>
       </c>
       <c r="V91" s="3">
         <v>-374000</v>
       </c>
       <c r="W91" s="3">
+        <v>-374000</v>
+      </c>
+      <c r="X91" s="3">
         <v>-387000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-313000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-326000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-350000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-307000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-405000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-41300</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-50300</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-32000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -7437,8 +7661,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -7526,97 +7753,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-689000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-743000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-618000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-780000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-639000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-301000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>9000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-387000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-499000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-603000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-408000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-405000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-454000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-264000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-163000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>362000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-383000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-351000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>422000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-477000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-386000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-347000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-284000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-256000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-306000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>556000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-44700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-48000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-27900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -7648,76 +7881,77 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-175000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-174000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-175000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-261000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-351000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-353000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-178000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-159000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-158000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-159000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-158000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-160000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-141000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-124000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-122000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-87000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-67000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-61000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-333000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-31000</v>
       </c>
       <c r="W96" s="3">
         <v>-31000</v>
       </c>
       <c r="X96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-32000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-31000</v>
       </c>
       <c r="Z96" s="3">
         <v>-31000</v>
@@ -7726,19 +7960,22 @@
         <v>-31000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-32000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -7826,8 +8063,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -7915,8 +8155,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -8004,102 +8247,108 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-333000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-309000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-221000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-815000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-656000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-727000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-406000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-763000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-646000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-570000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-409000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-789000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-408000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-348000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-709000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-328000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-369000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-82000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-360000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-57000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-704000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-92000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-72000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-126000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1127000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-355000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-4400</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-3000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -8108,13 +8357,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-3000</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="J101" s="3">
         <v>0</v>
@@ -8126,50 +8375,50 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-1000</v>
       </c>
       <c r="Y101" s="3">
         <v>-1000</v>
       </c>
       <c r="Z101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AA101" s="3">
         <v>1000</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
       <c r="AB101" s="3">
         <v>0</v>
       </c>
@@ -8182,93 +8431,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-220000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-63000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-800000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-540000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-107000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>607000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>237000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-95000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-534000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>484000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>444000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1001000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>416000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>909000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>252000</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>582000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-126000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-388000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-299000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>150000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>209000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-901000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>649000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>84000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>155200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>88400</v>
       </c>
     </row>
